--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1031,6 +1031,32 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+//掉落的装备是否是公会拍卖行装备 1是 2否</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 //NPC道具掉落信息 逗号分隔概率 分号分隔种类 1,0.02;2,0.03</t>
         </r>
       </text>
@@ -1040,7 +1066,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="161">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1625,9 +1651,6 @@
   </si>
   <si>
     <t>1,0.015;2,0.015;3,0.015;4,0.012;5,0.015;6,0.015;7,0.015;</t>
-  </si>
-  <si>
-    <t>1,0.015;2,0.015;3,0.015;4,0.012;5,0.015;6,0.015;7,0.015;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1652,6 +1675,13 @@
   </si>
   <si>
     <t>8,0.025;9,0.025;10,0.025;18,0.015;19,0.015;20,0.015;21,0.015;27,0.015;28,0.015;29,0.01;41,0.01;30,0.01;48,0.01;49,0.01;48,0.01;49,0.01;50,0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsGuildItemDrop</t>
+  </si>
+  <si>
+    <t>1,0.50;2,0.50;3,0.5;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2025,10 +2055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN44"/>
+  <dimension ref="A1:AO44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AN28" sqref="AN28"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AO21" sqref="AO21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2064,10 +2094,10 @@
     <col min="33" max="33" width="14.75" customWidth="1"/>
     <col min="34" max="34" width="14.375" customWidth="1"/>
     <col min="36" max="36" width="17.5" customWidth="1"/>
-    <col min="40" max="40" width="185" customWidth="1"/>
+    <col min="41" max="41" width="185" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2186,10 +2216,13 @@
         <v>121</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2304,8 +2337,11 @@
       <c r="AM2">
         <v>4</v>
       </c>
+      <c r="AN2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2417,11 +2453,14 @@
       <c r="AM3">
         <v>4</v>
       </c>
-      <c r="AN3" t="s">
-        <v>153</v>
+      <c r="AN3">
+        <v>2</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2539,8 +2578,11 @@
       <c r="AM4">
         <v>1000</v>
       </c>
+      <c r="AN4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2646,8 +2688,11 @@
       <c r="AM5">
         <v>0</v>
       </c>
+      <c r="AN5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2765,8 +2810,11 @@
       <c r="AM6">
         <v>1000</v>
       </c>
+      <c r="AN6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2884,8 +2932,11 @@
       <c r="AM7">
         <v>1000</v>
       </c>
+      <c r="AN7">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3003,8 +3054,11 @@
       <c r="AM8">
         <v>1000</v>
       </c>
+      <c r="AN8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3122,8 +3176,11 @@
       <c r="AM9">
         <v>1000</v>
       </c>
+      <c r="AN9">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3241,8 +3298,11 @@
       <c r="AM10">
         <v>1000</v>
       </c>
+      <c r="AN10">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3360,8 +3420,11 @@
       <c r="AM11">
         <v>1000</v>
       </c>
+      <c r="AN11">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3479,8 +3542,11 @@
       <c r="AM12">
         <v>1000</v>
       </c>
+      <c r="AN12">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3598,8 +3664,11 @@
       <c r="AM13">
         <v>1000</v>
       </c>
+      <c r="AN13">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3717,8 +3786,11 @@
       <c r="AM14">
         <v>1000</v>
       </c>
+      <c r="AN14">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3836,8 +3908,11 @@
       <c r="AM15">
         <v>1000</v>
       </c>
+      <c r="AN15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3955,8 +4030,11 @@
       <c r="AM16">
         <v>1000</v>
       </c>
+      <c r="AN16">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4074,8 +4152,11 @@
       <c r="AM17">
         <v>1000</v>
       </c>
+      <c r="AN17">
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4193,8 +4274,11 @@
       <c r="AM18">
         <v>1000</v>
       </c>
+      <c r="AN18">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4312,8 +4396,11 @@
       <c r="AM19">
         <v>1000</v>
       </c>
+      <c r="AN19">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4431,8 +4518,11 @@
       <c r="AM20">
         <v>1000</v>
       </c>
+      <c r="AN20">
+        <v>2</v>
+      </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4550,8 +4640,11 @@
       <c r="AM21">
         <v>1000</v>
       </c>
+      <c r="AN21">
+        <v>2</v>
+      </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4669,8 +4762,11 @@
       <c r="AM22">
         <v>1000</v>
       </c>
+      <c r="AN22">
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4785,8 +4881,11 @@
       <c r="AM23">
         <v>1000</v>
       </c>
+      <c r="AN23">
+        <v>2</v>
+      </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4898,11 +4997,14 @@
       <c r="AM24">
         <v>4</v>
       </c>
-      <c r="AN24" t="s">
-        <v>152</v>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5017,11 +5119,14 @@
       <c r="AM25">
         <v>4</v>
       </c>
-      <c r="AN25" t="s">
+      <c r="AN25">
+        <v>2</v>
+      </c>
+      <c r="AO25" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5133,11 +5238,14 @@
       <c r="AM26">
         <v>4</v>
       </c>
-      <c r="AN26" t="s">
-        <v>154</v>
+      <c r="AN26">
+        <v>2</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5249,11 +5357,14 @@
       <c r="AM27">
         <v>4</v>
       </c>
-      <c r="AN27" t="s">
-        <v>154</v>
+      <c r="AN27">
+        <v>2</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5368,11 +5479,14 @@
       <c r="AM28">
         <v>4</v>
       </c>
-      <c r="AN28" t="s">
+      <c r="AN28">
+        <v>2</v>
+      </c>
+      <c r="AO28" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5484,11 +5598,14 @@
       <c r="AM29">
         <v>4</v>
       </c>
-      <c r="AN29" t="s">
+      <c r="AN29">
+        <v>2</v>
+      </c>
+      <c r="AO29" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5600,11 +5717,14 @@
       <c r="AM30">
         <v>4</v>
       </c>
-      <c r="AN30" t="s">
+      <c r="AN30">
+        <v>2</v>
+      </c>
+      <c r="AO30" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5719,11 +5839,14 @@
       <c r="AM31">
         <v>4</v>
       </c>
-      <c r="AN31" t="s">
-        <v>155</v>
+      <c r="AN31">
+        <v>2</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5835,11 +5958,14 @@
       <c r="AM32">
         <v>4</v>
       </c>
-      <c r="AN32" t="s">
-        <v>156</v>
+      <c r="AN32">
+        <v>2</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5951,11 +6077,14 @@
       <c r="AM33">
         <v>4</v>
       </c>
-      <c r="AN33" t="s">
-        <v>156</v>
+      <c r="AN33">
+        <v>2</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6070,11 +6199,14 @@
       <c r="AM34">
         <v>4</v>
       </c>
-      <c r="AN34" t="s">
+      <c r="AN34">
+        <v>2</v>
+      </c>
+      <c r="AO34" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6186,11 +6318,14 @@
       <c r="AM35">
         <v>4</v>
       </c>
-      <c r="AN35" t="s">
-        <v>157</v>
+      <c r="AN35">
+        <v>2</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6302,11 +6437,14 @@
       <c r="AM36">
         <v>4</v>
       </c>
-      <c r="AN36" t="s">
-        <v>157</v>
+      <c r="AN36">
+        <v>2</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6421,11 +6559,14 @@
       <c r="AM37">
         <v>4</v>
       </c>
-      <c r="AN37" t="s">
+      <c r="AN37">
+        <v>2</v>
+      </c>
+      <c r="AO37" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6537,11 +6678,14 @@
       <c r="AM38">
         <v>4</v>
       </c>
-      <c r="AN38" t="s">
-        <v>158</v>
+      <c r="AN38">
+        <v>2</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6653,11 +6797,14 @@
       <c r="AM39">
         <v>4</v>
       </c>
-      <c r="AN39" t="s">
-        <v>158</v>
+      <c r="AN39">
+        <v>2</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6772,11 +6919,14 @@
       <c r="AM40">
         <v>4</v>
       </c>
-      <c r="AN40" t="s">
+      <c r="AN40">
+        <v>2</v>
+      </c>
+      <c r="AO40" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6888,11 +7038,14 @@
       <c r="AM41">
         <v>4</v>
       </c>
-      <c r="AN41" t="s">
-        <v>159</v>
+      <c r="AN41">
+        <v>2</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7004,11 +7157,14 @@
       <c r="AM42">
         <v>4</v>
       </c>
-      <c r="AN42" t="s">
-        <v>159</v>
+      <c r="AN42">
+        <v>2</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7123,11 +7279,14 @@
       <c r="AM43">
         <v>4</v>
       </c>
-      <c r="AN43" t="s">
+      <c r="AN43">
+        <v>2</v>
+      </c>
+      <c r="AO43" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -7242,7 +7401,10 @@
       <c r="AM44">
         <v>4</v>
       </c>
-      <c r="AN44" t="s">
+      <c r="AN44">
+        <v>2</v>
+      </c>
+      <c r="AO44" t="s">
         <v>143</v>
       </c>
     </row>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1057,6 +1057,58 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+//品经验</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//公会经验(只有击杀者的公会会有公会经验)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 //NPC道具掉落信息 逗号分隔概率 分号分隔种类 1,0.02;2,0.03</t>
         </r>
       </text>
@@ -1066,7 +1118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="163">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1681,8 +1733,14 @@
     <t>IsGuildItemDrop</t>
   </si>
   <si>
-    <t>1,0.50;2,0.50;3,0.5;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>GuildPinExp</t>
+  </si>
+  <si>
+    <t>1,0.10;2,0.10;3,0.1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildExp</t>
   </si>
 </sst>
 </file>
@@ -2055,10 +2113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO44"/>
+  <dimension ref="A1:AQ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AO21" sqref="AO21"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AQ19" sqref="AQ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2094,10 +2152,10 @@
     <col min="33" max="33" width="14.75" customWidth="1"/>
     <col min="34" max="34" width="14.375" customWidth="1"/>
     <col min="36" max="36" width="17.5" customWidth="1"/>
-    <col min="41" max="41" width="185" customWidth="1"/>
+    <col min="43" max="43" width="185" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2219,10 +2277,16 @@
         <v>159</v>
       </c>
       <c r="AO1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2340,8 +2404,14 @@
       <c r="AN2">
         <v>2</v>
       </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2456,11 +2526,17 @@
       <c r="AN3">
         <v>2</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2581,8 +2657,14 @@
       <c r="AN4">
         <v>2</v>
       </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2691,8 +2773,14 @@
       <c r="AN5">
         <v>2</v>
       </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2813,8 +2901,14 @@
       <c r="AN6">
         <v>2</v>
       </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2935,8 +3029,14 @@
       <c r="AN7">
         <v>2</v>
       </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3057,8 +3157,14 @@
       <c r="AN8">
         <v>2</v>
       </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3179,8 +3285,14 @@
       <c r="AN9">
         <v>2</v>
       </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3301,8 +3413,14 @@
       <c r="AN10">
         <v>2</v>
       </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3423,8 +3541,14 @@
       <c r="AN11">
         <v>2</v>
       </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3545,8 +3669,14 @@
       <c r="AN12">
         <v>2</v>
       </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3667,8 +3797,14 @@
       <c r="AN13">
         <v>2</v>
       </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3789,8 +3925,14 @@
       <c r="AN14">
         <v>2</v>
       </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3911,8 +4053,14 @@
       <c r="AN15">
         <v>2</v>
       </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4033,8 +4181,14 @@
       <c r="AN16">
         <v>2</v>
       </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4155,8 +4309,14 @@
       <c r="AN17">
         <v>2</v>
       </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4277,8 +4437,14 @@
       <c r="AN18">
         <v>2</v>
       </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4399,8 +4565,14 @@
       <c r="AN19">
         <v>2</v>
       </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4521,8 +4693,14 @@
       <c r="AN20">
         <v>2</v>
       </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4643,8 +4821,14 @@
       <c r="AN21">
         <v>2</v>
       </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4765,8 +4949,14 @@
       <c r="AN22">
         <v>2</v>
       </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4884,8 +5074,14 @@
       <c r="AN23">
         <v>2</v>
       </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5000,11 +5196,17 @@
       <c r="AN24">
         <v>1</v>
       </c>
-      <c r="AO24" t="s">
-        <v>160</v>
+      <c r="AO24">
+        <v>50</v>
+      </c>
+      <c r="AP24">
+        <v>60</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5122,11 +5324,17 @@
       <c r="AN25">
         <v>2</v>
       </c>
-      <c r="AO25" t="s">
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5241,11 +5449,17 @@
       <c r="AN26">
         <v>2</v>
       </c>
-      <c r="AO26" t="s">
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5360,11 +5574,17 @@
       <c r="AN27">
         <v>2</v>
       </c>
-      <c r="AO27" t="s">
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5482,11 +5702,17 @@
       <c r="AN28">
         <v>2</v>
       </c>
-      <c r="AO28" t="s">
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5601,11 +5827,17 @@
       <c r="AN29">
         <v>2</v>
       </c>
-      <c r="AO29" t="s">
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5720,11 +5952,17 @@
       <c r="AN30">
         <v>2</v>
       </c>
-      <c r="AO30" t="s">
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5842,11 +6080,17 @@
       <c r="AN31">
         <v>2</v>
       </c>
-      <c r="AO31" t="s">
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5961,11 +6205,17 @@
       <c r="AN32">
         <v>2</v>
       </c>
-      <c r="AO32" t="s">
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6080,11 +6330,17 @@
       <c r="AN33">
         <v>2</v>
       </c>
-      <c r="AO33" t="s">
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6202,11 +6458,17 @@
       <c r="AN34">
         <v>2</v>
       </c>
-      <c r="AO34" t="s">
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6321,11 +6583,17 @@
       <c r="AN35">
         <v>2</v>
       </c>
-      <c r="AO35" t="s">
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6440,11 +6708,17 @@
       <c r="AN36">
         <v>2</v>
       </c>
-      <c r="AO36" t="s">
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
+      <c r="AQ36" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6562,11 +6836,17 @@
       <c r="AN37">
         <v>2</v>
       </c>
-      <c r="AO37" t="s">
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>0</v>
+      </c>
+      <c r="AQ37" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6681,11 +6961,17 @@
       <c r="AN38">
         <v>2</v>
       </c>
-      <c r="AO38" t="s">
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6800,11 +7086,17 @@
       <c r="AN39">
         <v>2</v>
       </c>
-      <c r="AO39" t="s">
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AQ39" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6922,11 +7214,17 @@
       <c r="AN40">
         <v>2</v>
       </c>
-      <c r="AO40" t="s">
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>0</v>
+      </c>
+      <c r="AQ40" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7041,11 +7339,17 @@
       <c r="AN41">
         <v>2</v>
       </c>
-      <c r="AO41" t="s">
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7160,11 +7464,17 @@
       <c r="AN42">
         <v>2</v>
       </c>
-      <c r="AO42" t="s">
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7282,11 +7592,17 @@
       <c r="AN43">
         <v>2</v>
       </c>
-      <c r="AO43" t="s">
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>0</v>
+      </c>
+      <c r="AQ43" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -7404,7 +7720,13 @@
       <c r="AN44">
         <v>2</v>
       </c>
-      <c r="AO44" t="s">
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>0</v>
+      </c>
+      <c r="AQ44" t="s">
         <v>143</v>
       </c>
     </row>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1118,7 +1118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="162">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1678,69 +1678,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>32,0.015;33,0.015;34,0.015;8,0.02;9,0.02;10,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32,0.015;33,0.015;34,0.015;8,0.02;9,0.02;10,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89,0.1;87,0.1;88,0.1;42,0.215;43,0.215;86,0.215;87,0.215;88,0.215;90,0.215;91,0.215;92,0.215;93,0.215;94,0.215;95,0.215;96,0.215;97,0.215;30,0.3;44,0.2;45,0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89,0.15;87,0.15;88,0.15;42,0.262;43,0.262;86,0.262;87,0.262;88,0.262;90,0.262;91,0.262;92,0.262;93,0.262;94,0.262;95,0.262;96,0.275;97,0.262;48,0.15;49,0.15;44,0.2;45,0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89,0.18;87,0.18;88,0.18;42,0.375;43,0.375;86,0.375;87,0.375;88,0.375;90,0.375;91,0.375;92,0.375;93,0.375;94,0.375;95,0.375;96,0.375;97,0.375;48,0.15;49,0.15;50,0.15;44,0.2;45,0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0.015;2,0.015;3,0.015;4,0.012;5,0.015;6,0.015;7,0.015;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,0.015;6,0.015;7,0.015;11,0.052;8,0.01;9,0.01;10,0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,0.35;36,0.35;43,0.35;32,0.55;33,0.55;34,0.55;5,0.52;6,0.52;7,0.52;30,0.15;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,0.015;9,0.015;10,0.015;18,0.015;19,0.015;20,0.015;21,0.015;27,0.015;28,0.015;29,0.01;41,0.01;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,0.025;9,0.025;10,0.025;18,0.015;19,0.015;20,0.015;21,0.015;27,0.015;28,0.015;29,0.01;41,0.01;30,0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,0.025;9,0.025;10,0.025;18,0.015;19,0.015;20,0.015;21,0.015;27,0.015;28,0.015;29,0.01;41,0.01;30,0.01;48,0.01;49,0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,0.025;9,0.025;10,0.025;18,0.015;19,0.015;20,0.015;21,0.015;27,0.015;28,0.015;29,0.01;41,0.01;30,0.01;48,0.01;49,0.01;48,0.01;49,0.01;50,0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsGuildItemDrop</t>
+  </si>
+  <si>
+    <t>GuildPinExp</t>
+  </si>
+  <si>
+    <t>GuildExp</t>
+  </si>
+  <si>
     <t>5,0.35;6,0.35;7,0.35;12,0.22;13,0.22;14,0.22;32,0.25;33,0.25;34,0.25;</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32,0.015;33,0.015;34,0.015;8,0.02;9,0.02;10,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32,0.015;33,0.015;34,0.015;8,0.02;9,0.02;10,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89,0.1;87,0.1;88,0.1;42,0.215;43,0.215;86,0.215;87,0.215;88,0.215;90,0.215;91,0.215;92,0.215;93,0.215;94,0.215;95,0.215;96,0.215;97,0.215;30,0.3;44,0.2;45,0.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89,0.15;87,0.15;88,0.15;42,0.262;43,0.262;86,0.262;87,0.262;88,0.262;90,0.262;91,0.262;92,0.262;93,0.262;94,0.262;95,0.262;96,0.275;97,0.262;48,0.15;49,0.15;44,0.2;45,0.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89,0.18;87,0.18;88,0.18;42,0.375;43,0.375;86,0.375;87,0.375;88,0.375;90,0.375;91,0.375;92,0.375;93,0.375;94,0.375;95,0.375;96,0.375;97,0.375;48,0.15;49,0.15;50,0.15;44,0.2;45,0.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,0.015;2,0.015;3,0.015;4,0.012;5,0.015;6,0.015;7,0.015;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,0.015;6,0.015;7,0.015;11,0.052;8,0.01;9,0.01;10,0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,0.35;36,0.35;43,0.35;32,0.55;33,0.55;34,0.55;5,0.52;6,0.52;7,0.52;30,0.15;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,0.015;9,0.015;10,0.015;18,0.015;19,0.015;20,0.015;21,0.015;27,0.015;28,0.015;29,0.01;41,0.01;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,0.025;9,0.025;10,0.025;18,0.015;19,0.015;20,0.015;21,0.015;27,0.015;28,0.015;29,0.01;41,0.01;30,0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,0.025;9,0.025;10,0.025;18,0.015;19,0.015;20,0.015;21,0.015;27,0.015;28,0.015;29,0.01;41,0.01;30,0.01;48,0.01;49,0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,0.025;9,0.025;10,0.025;18,0.015;19,0.015;20,0.015;21,0.015;27,0.015;28,0.015;29,0.01;41,0.01;30,0.01;48,0.01;49,0.01;48,0.01;49,0.01;50,0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsGuildItemDrop</t>
-  </si>
-  <si>
-    <t>GuildPinExp</t>
-  </si>
-  <si>
-    <t>1,0.10;2,0.10;3,0.1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuildExp</t>
   </si>
 </sst>
 </file>
@@ -2115,8 +2111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AQ19" sqref="AQ19"/>
+    <sheetView tabSelected="1" topLeftCell="AM10" workbookViewId="0">
+      <selection activeCell="AQ50" sqref="AQ50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2274,13 +2270,13 @@
         <v>121</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>125</v>
@@ -2533,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="AQ3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.15">
@@ -5197,13 +5193,13 @@
         <v>1</v>
       </c>
       <c r="AO24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AQ24" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.15">
@@ -5325,13 +5321,13 @@
         <v>2</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ25" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.15">
@@ -5456,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="AQ26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.15">
@@ -5581,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="AQ27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.15">
@@ -5703,10 +5699,10 @@
         <v>2</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AQ28" t="s">
         <v>144</v>
@@ -5834,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="AQ29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.15">
@@ -5959,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="AQ30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.15">
@@ -6081,13 +6077,13 @@
         <v>2</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.15">
@@ -6212,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="AQ32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.15">
@@ -6337,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="AQ33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.15">
@@ -6459,13 +6455,13 @@
         <v>2</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP34">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.15">
@@ -6590,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="AQ35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.15">
@@ -6715,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="AQ36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.15">
@@ -6837,13 +6833,13 @@
         <v>2</v>
       </c>
       <c r="AO37">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AP37">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AQ37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.15">
@@ -6968,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="AQ38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.15">
@@ -7093,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="AQ39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.15">
@@ -7215,13 +7211,13 @@
         <v>2</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AP40">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AQ40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.15">
@@ -7346,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.15">
@@ -7471,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.15">
@@ -7593,10 +7589,10 @@
         <v>2</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AP43">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ43" t="s">
         <v>145</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1170,7 +1170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="221">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1715,212 +1715,307 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>8,0.35;9,0.35;10,0.35;18,0.32;19,0.32;20,0.32;21,0.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32,0.015;33,0.015;34,0.015;8,0.02;9,0.02;10,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32,0.015;33,0.015;34,0.015;8,0.02;9,0.02;10,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0.015;2,0.015;3,0.015;4,0.012;5,0.015;6,0.015;7,0.015;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,0.015;6,0.015;7,0.015;11,0.052;8,0.01;9,0.01;10,0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsGuildItemDrop</t>
+  </si>
+  <si>
+    <t>GuildPinExp</t>
+  </si>
+  <si>
+    <t>GuildExp</t>
+  </si>
+  <si>
+    <t>5,0.35;6,0.35;7,0.35;12,0.22;13,0.22;14,0.22;32,0.25;33,0.25;34,0.25;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54,0.01;57,0.01;58,0.01;59,0.01;83,0.01;79,0.03;80,0.03;81,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48,0.001;49,0.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Footman_Lit_purple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Mage_Lit_purple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Mage_Lit_orange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48,0.0015;49,0.0015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48,0.0015;49,0.0015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Footman_Lit_green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05;59,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05;61,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05;60,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05;62,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05;63,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05;64,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05;74,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48,0.0025;49,0.0025;50,0.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48,0.0015;49,0.0015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会关卡</t>
+  </si>
+  <si>
+    <t>公会关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultEquipItems</t>
+  </si>
+  <si>
+    <t>DefaultSkills</t>
+  </si>
+  <si>
+    <t>58,1;57,1;65,1;</t>
+  </si>
+  <si>
+    <t>58,1;57,1;65,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,4;122,4;</t>
+  </si>
+  <si>
+    <t>23,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,1;122,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,1;122,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,1;122,3;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122,4;23,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122,4;23,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122,4;23,3;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,122</t>
+  </si>
+  <si>
+    <t>23,122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,0.15;36,0.15;43,0.15;30,0.05;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42,0.15;43,0.215;30,0.15;44,0.2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,4;122,4;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,4;122,4;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42,0.2;43,0.2;86,0.2;90,0.2;91,0.2;48,0.15;49,0.15;44,0.2;45,0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>54,0.003;55,0.003;58,0.003;59,0.003;60,0.003;61,0.003;62,0.003;63,0.003;64,0.003;74,0.003;83,0.003;84,0.003;85,0.003;</t>
-  </si>
-  <si>
-    <t>8,0.35;9,0.35;10,0.35;18,0.32;19,0.32;20,0.32;21,0.21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32,0.015;33,0.015;34,0.015;8,0.02;9,0.02;10,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32,0.015;33,0.015;34,0.015;8,0.02;9,0.02;10,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,0.015;2,0.015;3,0.015;4,0.012;5,0.015;6,0.015;7,0.015;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,0.015;6,0.015;7,0.015;11,0.052;8,0.01;9,0.01;10,0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,0.35;36,0.35;43,0.35;32,0.55;33,0.55;34,0.55;5,0.52;6,0.52;7,0.52;30,0.15;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,0.015;9,0.015;10,0.015;18,0.015;19,0.015;20,0.015;21,0.015;27,0.015;28,0.015;29,0.01;41,0.01;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsGuildItemDrop</t>
-  </si>
-  <si>
-    <t>GuildPinExp</t>
-  </si>
-  <si>
-    <t>GuildExp</t>
-  </si>
-  <si>
-    <t>5,0.35;6,0.35;7,0.35;12,0.22;13,0.22;14,0.22;32,0.25;33,0.25;34,0.25;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42,0.262;43,0.262;86,0.262;90,0.262;91,0.262;92,0.262;93,0.262;95,0.262;96,0.275;97,0.262;48,0.15;49,0.15;44,0.2;45,0.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89,0.18;87,0.18;88,0.18;42,0.375;43,0.375;86,0.375;90,0.375;91,0.375;92,0.375;93,0.375;94,0.375;95,0.375;96,0.375;97,0.375;48,0.15;49,0.15;50,0.15;44,0.2;45,0.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54,0.01;57,0.01;58,0.01;59,0.01;83,0.01;79,0.03;80,0.03;81,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48,0.001;49,0.001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,0.025;9,0.025;10,0.025;18,0.015;19,0.015;20,0.015;21,0.015;27,0.015;28,0.015;29,0.01;41,0.01;30,0.001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42,0.215;43,0.215;86,0.215;87,0.215;90,0.215;91,0.215;92,0.215;93,0.215;95,0.215;96,0.215;97,0.215;30,0.3;44,0.2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy/Footman_Lit_purple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy/Mage_Lit_purple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy/Mage_Lit_orange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48,0.0015;49,0.0015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48,0.0015;49,0.0015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05;58,0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy/Footman_Lit_green</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05;58,0.05;59,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05;58,0.05;61,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05;58,0.05;60,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05;58,0.05;62,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,0.015;19,0.015;20,0.015;21,0.015;27,0.015;28,0.015;29,0.01;41,0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,0.015;9,0.015;10,0.015;18,0.015;19,0.015;27,0.015;28,0.015;29,0.01;41,0.01;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,0.015;9,0.015;10,0.015;18,0.015;19,0.015;27,0.015;28,0.015;29,0.01;41,0.01;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动地图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>boss16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05;58,0.05;63,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05;58,0.05;64,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05;58,0.05;74,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05;58,0.05;75,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48,0.0025;49,0.0025;50,0.001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48,0.0015;49,0.0015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会关卡</t>
-  </si>
-  <si>
-    <t>公会关卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefaultEquipItems</t>
-  </si>
-  <si>
-    <t>58,1;57,1;70,1;65,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefaultSkills</t>
-  </si>
-  <si>
-    <t>5,4;6,4;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,6</t>
+  </si>
+  <si>
+    <t>0,1,1</t>
+  </si>
+  <si>
+    <t>0,0,0.8</t>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;67,0.05;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;71,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;72,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;80,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;79,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;82,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;85,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;84,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89,0.18;87,0.18;88,0.18;86,0.375;90,0.375;48,0.15;49,0.15;50,0.15;44,0.2;45,0.15;46,0.05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1992,11 +2087,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2301,10 +2397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT56"/>
+  <dimension ref="A1:AT64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI16" workbookViewId="0">
-      <selection activeCell="AK59" sqref="AK59"/>
+    <sheetView tabSelected="1" topLeftCell="AS28" workbookViewId="0">
+      <selection activeCell="AT51" sqref="AT51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2340,7 +2436,9 @@
     <col min="34" max="34" width="14.75" customWidth="1"/>
     <col min="35" max="35" width="14.375" customWidth="1"/>
     <col min="37" max="37" width="17.5" customWidth="1"/>
-    <col min="46" max="46" width="24.5" customWidth="1"/>
+    <col min="44" max="44" width="13" customWidth="1"/>
+    <col min="45" max="45" width="22.125" customWidth="1"/>
+    <col min="46" max="46" width="169.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15.75" x14ac:dyDescent="0.3">
@@ -2351,7 +2449,7 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2465,19 +2563,19 @@
         <v>121</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>125</v>
@@ -2730,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="AT3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.15">
@@ -5400,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="AT24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.15">
@@ -5532,7 +5630,7 @@
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
       <c r="AT25" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.15">
@@ -5657,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="AT26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.15">
@@ -5782,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="AT27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.15">
@@ -5892,7 +5990,9 @@
       <c r="AJ28" s="3">
         <v>2</v>
       </c>
-      <c r="AK28" s="3"/>
+      <c r="AK28" s="3">
+        <v>23</v>
+      </c>
       <c r="AL28" s="3">
         <v>0.3</v>
       </c>
@@ -5911,10 +6011,12 @@
       <c r="AQ28" s="3">
         <v>8</v>
       </c>
-      <c r="AR28" s="3"/>
+      <c r="AR28" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="AS28" s="3"/>
       <c r="AT28" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.15">
@@ -5922,7 +6024,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E29">
         <v>110</v>
@@ -6039,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="AT29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.15">
@@ -6047,7 +6149,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E30">
         <v>34</v>
@@ -6164,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="AT30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.15">
@@ -6269,12 +6371,14 @@
         <v>4</v>
       </c>
       <c r="AI31" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ31" s="3">
         <v>2</v>
       </c>
-      <c r="AK31" s="3"/>
+      <c r="AK31" s="3">
+        <v>122</v>
+      </c>
       <c r="AL31" s="3">
         <v>0.3</v>
       </c>
@@ -6293,10 +6397,12 @@
       <c r="AQ31" s="3">
         <v>10</v>
       </c>
-      <c r="AR31" s="3"/>
+      <c r="AR31" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="AS31" s="3"/>
       <c r="AT31" s="3" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.15">
@@ -6421,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="AT32" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.15">
@@ -6429,7 +6535,7 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E33">
         <v>34</v>
@@ -6546,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="AT33" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.15">
@@ -6651,12 +6757,14 @@
         <v>4</v>
       </c>
       <c r="AI34" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ34" s="3">
         <v>2</v>
       </c>
-      <c r="AK34" s="3"/>
+      <c r="AK34" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="AL34" s="3">
         <v>0.3</v>
       </c>
@@ -6675,10 +6783,12 @@
       <c r="AQ34" s="3">
         <v>20</v>
       </c>
-      <c r="AR34" s="3"/>
+      <c r="AR34" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="AS34" s="3"/>
       <c r="AT34" s="3" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.15">
@@ -6803,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="AT35" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.15">
@@ -6928,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="AT36" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.15">
@@ -6958,7 +7068,7 @@
         <v>20000</v>
       </c>
       <c r="J37" s="3">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="K37" s="3">
         <v>250</v>
@@ -7033,12 +7143,14 @@
         <v>4</v>
       </c>
       <c r="AI37" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ37" s="3">
         <v>2</v>
       </c>
-      <c r="AK37" s="3"/>
+      <c r="AK37" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="AL37" s="3">
         <v>0.3</v>
       </c>
@@ -7057,10 +7169,12 @@
       <c r="AQ37" s="3">
         <v>30</v>
       </c>
-      <c r="AR37" s="3"/>
+      <c r="AR37" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="AS37" s="3"/>
       <c r="AT37" s="3" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.15">
@@ -7068,7 +7182,7 @@
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E38">
         <v>110</v>
@@ -7185,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="AT38" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.15">
@@ -7310,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="AT39" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.15">
@@ -7340,7 +7454,7 @@
         <v>50000</v>
       </c>
       <c r="J40" s="3">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="K40" s="3">
         <v>250</v>
@@ -7415,12 +7529,14 @@
         <v>4</v>
       </c>
       <c r="AI40" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ40" s="3">
         <v>2</v>
       </c>
-      <c r="AK40" s="3"/>
+      <c r="AK40" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="AL40" s="3">
         <v>0.3</v>
       </c>
@@ -7431,7 +7547,7 @@
         <v>4</v>
       </c>
       <c r="AO40" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP40" s="3">
         <v>40</v>
@@ -7439,10 +7555,12 @@
       <c r="AQ40" s="3">
         <v>40</v>
       </c>
-      <c r="AR40" s="3"/>
+      <c r="AR40" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="AS40" s="3"/>
       <c r="AT40" s="3" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.15">
@@ -7567,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="AT41" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.15">
@@ -7692,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="AT42" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.15">
@@ -7722,7 +7840,7 @@
         <v>200000</v>
       </c>
       <c r="J43" s="3">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="K43" s="3">
         <v>250</v>
@@ -7797,12 +7915,14 @@
         <v>4</v>
       </c>
       <c r="AI43" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ43" s="3">
         <v>2</v>
       </c>
-      <c r="AK43" s="3"/>
+      <c r="AK43" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="AL43" s="3">
         <v>0.3</v>
       </c>
@@ -7821,10 +7941,12 @@
       <c r="AQ43" s="3">
         <v>100</v>
       </c>
-      <c r="AR43" s="3"/>
+      <c r="AR43" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AS43" s="3"/>
       <c r="AT43" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.15">
@@ -7854,7 +7976,7 @@
         <v>200000</v>
       </c>
       <c r="J44" s="3">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="K44" s="3">
         <v>250</v>
@@ -7929,7 +8051,7 @@
         <v>4</v>
       </c>
       <c r="AI44" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ44" s="3">
         <v>2</v>
@@ -7956,7 +8078,7 @@
       <c r="AR44" s="3"/>
       <c r="AS44" s="3"/>
       <c r="AT44" s="3" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.15">
@@ -7964,7 +8086,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D45" t="s">
         <v>133</v>
@@ -8084,7 +8206,7 @@
         <v>0</v>
       </c>
       <c r="AT45" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.15">
@@ -8092,7 +8214,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D46" t="s">
         <v>134</v>
@@ -8212,7 +8334,7 @@
         <v>0</v>
       </c>
       <c r="AT46" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.15">
@@ -8220,10 +8342,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C47" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>124</v>
@@ -8244,7 +8366,7 @@
         <v>200000</v>
       </c>
       <c r="J47" s="3">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="K47" s="3">
         <v>250</v>
@@ -8319,13 +8441,13 @@
         <v>4</v>
       </c>
       <c r="AI47" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ47" s="3">
         <v>2</v>
       </c>
-      <c r="AK47" s="3" t="s">
-        <v>195</v>
+      <c r="AK47" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="AL47" s="3">
         <v>0.3</v>
@@ -8349,10 +8471,10 @@
         <v>194</v>
       </c>
       <c r="AS47" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AT47" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.15">
@@ -8360,10 +8482,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>124</v>
@@ -8384,7 +8506,7 @@
         <v>200000</v>
       </c>
       <c r="J48" s="3">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="K48" s="3">
         <v>250</v>
@@ -8459,12 +8581,14 @@
         <v>4</v>
       </c>
       <c r="AI48" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ48" s="3">
         <v>2</v>
       </c>
-      <c r="AK48" s="3"/>
+      <c r="AK48" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="AL48" s="3">
         <v>0.3</v>
       </c>
@@ -8483,10 +8607,14 @@
       <c r="AQ48" s="3">
         <v>100</v>
       </c>
-      <c r="AR48" s="3"/>
-      <c r="AS48" s="3"/>
+      <c r="AR48" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS48" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="AT48" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:46" x14ac:dyDescent="0.15">
@@ -8494,10 +8622,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C49" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>124</v>
@@ -8515,10 +8643,10 @@
         <v>104</v>
       </c>
       <c r="I49" s="3">
-        <v>250000</v>
+        <v>400000</v>
       </c>
       <c r="J49" s="3">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="K49" s="3">
         <v>250</v>
@@ -8593,12 +8721,14 @@
         <v>4</v>
       </c>
       <c r="AI49" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ49" s="3">
         <v>2</v>
       </c>
-      <c r="AK49" s="3"/>
+      <c r="AK49" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="AL49" s="3">
         <v>0.3</v>
       </c>
@@ -8617,10 +8747,14 @@
       <c r="AQ49" s="3">
         <v>200</v>
       </c>
-      <c r="AR49" s="3"/>
-      <c r="AS49" s="3"/>
+      <c r="AR49" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AS49" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="AT49" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.15">
@@ -8628,10 +8762,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C50" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>124</v>
@@ -8649,10 +8783,10 @@
         <v>104</v>
       </c>
       <c r="I50" s="3">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="J50" s="3">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="K50" s="3">
         <v>250</v>
@@ -8727,12 +8861,14 @@
         <v>4</v>
       </c>
       <c r="AI50" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ50" s="3">
         <v>2</v>
       </c>
-      <c r="AK50" s="3"/>
+      <c r="AK50" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="AL50" s="3">
         <v>0.3</v>
       </c>
@@ -8751,10 +8887,14 @@
       <c r="AQ50" s="3">
         <v>200</v>
       </c>
-      <c r="AR50" s="3"/>
-      <c r="AS50" s="3"/>
+      <c r="AR50" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS50" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="AT50" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.15">
@@ -8762,10 +8902,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C51" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>124</v>
@@ -8786,7 +8926,7 @@
         <v>400000</v>
       </c>
       <c r="J51" s="3">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="K51" s="3">
         <v>250</v>
@@ -8861,12 +9001,14 @@
         <v>4</v>
       </c>
       <c r="AI51" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ51" s="3">
         <v>2</v>
       </c>
-      <c r="AK51" s="3"/>
+      <c r="AK51" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="AL51" s="3">
         <v>0.3</v>
       </c>
@@ -8885,10 +9027,14 @@
       <c r="AQ51" s="3">
         <v>250</v>
       </c>
-      <c r="AR51" s="3"/>
-      <c r="AS51" s="3"/>
+      <c r="AR51" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS51" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="AT51" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:46" x14ac:dyDescent="0.15">
@@ -8896,10 +9042,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C52" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>124</v>
@@ -8917,10 +9063,10 @@
         <v>104</v>
       </c>
       <c r="I52" s="3">
-        <v>450000</v>
+        <v>400000</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="K52" s="3">
         <v>250</v>
@@ -8995,12 +9141,14 @@
         <v>4</v>
       </c>
       <c r="AI52" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ52" s="3">
         <v>2</v>
       </c>
-      <c r="AK52" s="3"/>
+      <c r="AK52" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="AL52" s="3">
         <v>0.3</v>
       </c>
@@ -9019,10 +9167,14 @@
       <c r="AQ52" s="3">
         <v>300</v>
       </c>
-      <c r="AR52" s="3"/>
-      <c r="AS52" s="3"/>
+      <c r="AR52" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS52" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="AT52" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:46" x14ac:dyDescent="0.15">
@@ -9030,10 +9182,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C53" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>124</v>
@@ -9051,10 +9203,10 @@
         <v>104</v>
       </c>
       <c r="I53" s="3">
-        <v>480000</v>
+        <v>400000</v>
       </c>
       <c r="J53" s="3">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="K53" s="3">
         <v>250</v>
@@ -9129,12 +9281,14 @@
         <v>4</v>
       </c>
       <c r="AI53" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ53" s="3">
         <v>2</v>
       </c>
-      <c r="AK53" s="3"/>
+      <c r="AK53" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="AL53" s="3">
         <v>0.3</v>
       </c>
@@ -9153,10 +9307,14 @@
       <c r="AQ53" s="3">
         <v>310</v>
       </c>
-      <c r="AR53" s="3"/>
-      <c r="AS53" s="3"/>
+      <c r="AR53" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS53" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="AT53" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:46" x14ac:dyDescent="0.15">
@@ -9164,10 +9322,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C54" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>124</v>
@@ -9185,10 +9343,10 @@
         <v>104</v>
       </c>
       <c r="I54" s="3">
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="J54" s="3">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="K54" s="3">
         <v>250</v>
@@ -9263,12 +9421,14 @@
         <v>4</v>
       </c>
       <c r="AI54" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ54" s="3">
         <v>2</v>
       </c>
-      <c r="AK54" s="3"/>
+      <c r="AK54" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="AL54" s="3">
         <v>0.3</v>
       </c>
@@ -9287,10 +9447,14 @@
       <c r="AQ54" s="3">
         <v>320</v>
       </c>
-      <c r="AR54" s="3"/>
-      <c r="AS54" s="3"/>
+      <c r="AR54" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS54" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="AT54" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.15">
@@ -9298,10 +9462,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C55" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>124</v>
@@ -9319,10 +9483,10 @@
         <v>104</v>
       </c>
       <c r="I55" s="3">
-        <v>550000</v>
+        <v>400000</v>
       </c>
       <c r="J55" s="3">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="K55" s="3">
         <v>250</v>
@@ -9397,12 +9561,14 @@
         <v>4</v>
       </c>
       <c r="AI55" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ55" s="3">
         <v>2</v>
       </c>
-      <c r="AK55" s="3"/>
+      <c r="AK55" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="AL55" s="3">
         <v>0.3</v>
       </c>
@@ -9421,10 +9587,14 @@
       <c r="AQ55" s="3">
         <v>330</v>
       </c>
-      <c r="AR55" s="3"/>
-      <c r="AS55" s="3"/>
+      <c r="AR55" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS55" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="AT55" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.15">
@@ -9432,10 +9602,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C56" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>124</v>
@@ -9453,10 +9623,10 @@
         <v>104</v>
       </c>
       <c r="I56" s="3">
-        <v>600000</v>
+        <v>200000</v>
       </c>
       <c r="J56" s="3">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="K56" s="3">
         <v>250</v>
@@ -9531,12 +9701,14 @@
         <v>4</v>
       </c>
       <c r="AI56" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ56" s="3">
         <v>2</v>
       </c>
-      <c r="AK56" s="3"/>
+      <c r="AK56" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="AL56" s="3">
         <v>0.3</v>
       </c>
@@ -9555,10 +9727,1134 @@
       <c r="AQ56" s="3">
         <v>350</v>
       </c>
-      <c r="AR56" s="3"/>
-      <c r="AS56" s="3"/>
+      <c r="AR56" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS56" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="AT56" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" t="s">
+        <v>207</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57" s="3">
+        <v>111</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I57" s="3">
+        <v>200000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K57" s="3">
+        <v>250</v>
+      </c>
+      <c r="L57" s="3">
+        <v>600</v>
+      </c>
+      <c r="M57" s="3">
+        <v>150</v>
+      </c>
+      <c r="N57" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O57" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>20</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>1</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="AF57" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG57" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH57" s="3">
+        <v>4</v>
+      </c>
+      <c r="AI57" s="3">
+        <v>7</v>
+      </c>
+      <c r="AJ57" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK57" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL57" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AM57" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN57" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO57" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP57" s="3">
+        <v>190</v>
+      </c>
+      <c r="AQ57" s="3">
+        <v>350</v>
+      </c>
+      <c r="AR57" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS57" s="3" t="s">
         <v>185</v>
+      </c>
+      <c r="AT57" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" t="s">
+        <v>207</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" s="3">
+        <v>111</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I58" s="3">
+        <v>400000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K58" s="3">
+        <v>250</v>
+      </c>
+      <c r="L58" s="3">
+        <v>600</v>
+      </c>
+      <c r="M58" s="3">
+        <v>150</v>
+      </c>
+      <c r="N58" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O58" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>20</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>1</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="AF58" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG58" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH58" s="3">
+        <v>4</v>
+      </c>
+      <c r="AI58" s="3">
+        <v>7</v>
+      </c>
+      <c r="AJ58" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK58" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL58" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AM58" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN58" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO58" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP58" s="3">
+        <v>190</v>
+      </c>
+      <c r="AQ58" s="3">
+        <v>350</v>
+      </c>
+      <c r="AR58" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS58" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT58" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C59" t="s">
+        <v>207</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E59" s="3">
+        <v>111</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I59" s="3">
+        <v>400000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K59" s="3">
+        <v>250</v>
+      </c>
+      <c r="L59" s="3">
+        <v>600</v>
+      </c>
+      <c r="M59" s="3">
+        <v>150</v>
+      </c>
+      <c r="N59" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O59" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>20</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>1</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="AF59" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG59" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH59" s="3">
+        <v>4</v>
+      </c>
+      <c r="AI59" s="3">
+        <v>7</v>
+      </c>
+      <c r="AJ59" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK59" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL59" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AM59" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN59" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO59" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP59" s="3">
+        <v>190</v>
+      </c>
+      <c r="AQ59" s="3">
+        <v>350</v>
+      </c>
+      <c r="AR59" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS59" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT59" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C60" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E60" s="3">
+        <v>111</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I60" s="3">
+        <v>400000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K60" s="3">
+        <v>250</v>
+      </c>
+      <c r="L60" s="3">
+        <v>600</v>
+      </c>
+      <c r="M60" s="3">
+        <v>150</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O60" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>20</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>1</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="AF60" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG60" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH60" s="3">
+        <v>4</v>
+      </c>
+      <c r="AI60" s="3">
+        <v>7</v>
+      </c>
+      <c r="AJ60" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK60" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL60" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AM60" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN60" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO60" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP60" s="3">
+        <v>190</v>
+      </c>
+      <c r="AQ60" s="3">
+        <v>350</v>
+      </c>
+      <c r="AR60" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS60" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT60" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C61" t="s">
+        <v>207</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E61" s="3">
+        <v>111</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I61" s="3">
+        <v>400000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K61" s="3">
+        <v>250</v>
+      </c>
+      <c r="L61" s="3">
+        <v>600</v>
+      </c>
+      <c r="M61" s="3">
+        <v>150</v>
+      </c>
+      <c r="N61" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O61" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>20</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>1</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="AF61" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG61" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH61" s="3">
+        <v>4</v>
+      </c>
+      <c r="AI61" s="3">
+        <v>7</v>
+      </c>
+      <c r="AJ61" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK61" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL61" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AM61" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN61" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO61" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP61" s="3">
+        <v>190</v>
+      </c>
+      <c r="AQ61" s="3">
+        <v>350</v>
+      </c>
+      <c r="AR61" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS61" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT61" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="62" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C62" t="s">
+        <v>207</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E62" s="3">
+        <v>111</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I62" s="3">
+        <v>400000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K62" s="3">
+        <v>250</v>
+      </c>
+      <c r="L62" s="3">
+        <v>600</v>
+      </c>
+      <c r="M62" s="3">
+        <v>150</v>
+      </c>
+      <c r="N62" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O62" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>20</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>1</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="AF62" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG62" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH62" s="3">
+        <v>4</v>
+      </c>
+      <c r="AI62" s="3">
+        <v>7</v>
+      </c>
+      <c r="AJ62" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK62" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL62" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AM62" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN62" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO62" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP62" s="3">
+        <v>190</v>
+      </c>
+      <c r="AQ62" s="3">
+        <v>350</v>
+      </c>
+      <c r="AR62" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS62" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT62" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C63" t="s">
+        <v>207</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E63" s="3">
+        <v>111</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I63" s="3">
+        <v>400000</v>
+      </c>
+      <c r="J63" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K63" s="3">
+        <v>250</v>
+      </c>
+      <c r="L63" s="3">
+        <v>600</v>
+      </c>
+      <c r="M63" s="3">
+        <v>150</v>
+      </c>
+      <c r="N63" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O63" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>20</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>1</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="AF63" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG63" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH63" s="3">
+        <v>4</v>
+      </c>
+      <c r="AI63" s="3">
+        <v>7</v>
+      </c>
+      <c r="AJ63" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK63" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL63" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AM63" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN63" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO63" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP63" s="3">
+        <v>190</v>
+      </c>
+      <c r="AQ63" s="3">
+        <v>350</v>
+      </c>
+      <c r="AR63" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS63" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT63" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C64" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E64" s="3">
+        <v>111</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I64" s="3">
+        <v>400000</v>
+      </c>
+      <c r="J64" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K64" s="3">
+        <v>250</v>
+      </c>
+      <c r="L64" s="3">
+        <v>600</v>
+      </c>
+      <c r="M64" s="3">
+        <v>150</v>
+      </c>
+      <c r="N64" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O64" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>20</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>1</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG64" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH64" s="3">
+        <v>4</v>
+      </c>
+      <c r="AI64" s="3">
+        <v>7</v>
+      </c>
+      <c r="AJ64" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK64" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL64" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AM64" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN64" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO64" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP64" s="3">
+        <v>190</v>
+      </c>
+      <c r="AQ64" s="3">
+        <v>350</v>
+      </c>
+      <c r="AR64" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS64" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT64" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1170,7 +1170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="228">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1715,307 +1715,335 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1,0.015;2,0.015;3,0.015;4,0.012;5,0.015;6,0.015;7,0.015;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsGuildItemDrop</t>
+  </si>
+  <si>
+    <t>GuildPinExp</t>
+  </si>
+  <si>
+    <t>GuildExp</t>
+  </si>
+  <si>
+    <t>54,0.01;57,0.01;58,0.01;59,0.01;83,0.01;79,0.03;80,0.03;81,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Footman_Lit_purple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Mage_Lit_purple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Mage_Lit_orange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Footman_Lit_green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05;59,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05;61,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05;60,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05;62,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05;63,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05;64,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05;74,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会关卡</t>
+  </si>
+  <si>
+    <t>公会关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultEquipItems</t>
+  </si>
+  <si>
+    <t>DefaultSkills</t>
+  </si>
+  <si>
+    <t>58,1;57,1;65,1;</t>
+  </si>
+  <si>
+    <t>58,1;57,1;65,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,4;122,4;</t>
+  </si>
+  <si>
+    <t>23,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,1;122,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,1;122,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,1;122,3;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122,4;23,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122,4;23,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122,4;23,3;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,122</t>
+  </si>
+  <si>
+    <t>23,122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,4;122,4;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,4;122,4;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54,0.003;55,0.003;58,0.003;59,0.003;60,0.003;61,0.003;62,0.003;63,0.003;64,0.003;74,0.003;83,0.003;84,0.003;85,0.003;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss16</t>
+  </si>
+  <si>
+    <t>0,1,1</t>
+  </si>
+  <si>
+    <t>0,0,0.8</t>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;67,0.05;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;71,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;72,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;80,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;79,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;82,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;85,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;84,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,0.35;6,0.35;7,0.35;12,0.22;14,0.22;32,0.25;33,0.25;34,0.25;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,0.015;6,0.015;7,0.015;8,0.01;9,0.01;10,0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>8,0.35;9,0.35;10,0.35;18,0.32;19,0.32;20,0.32;21,0.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>32,0.015;33,0.015;34,0.015;8,0.02;9,0.02;10,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32,0.015;33,0.015;34,0.015;8,0.02;9,0.02;10,0.02</t>
+    <t>32,0.015;33,0.015;34,0.015;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,0.15;36,0.15;43,0.15;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,0.015;19,0.015;27,0.015;28,0.015;29,0.01;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42,0.15;43,0.215;30,0.15;44,0.2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,0.015;19,0.015;20,0.015;21,0.015;41,0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,0.015;19,0.015;20,0.015;21,0.015;41,0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42,0.2;43,0.2;86,0.2;90,0.2;91,0.2;48,0.15;49,0.15;44,0.2;45,0.15;77,0.05;78,0.05;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89,0.18;87,0.18;88,0.18;86,0.375;90,0.375;48,0.15;49,0.15;50,0.15;44,0.2;45,0.15;46,0.05;77,0.05;78,0.05;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77,0.001;78,0.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77,0.0015;78,0.0015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77,0.0015;78,0.0015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77,0.001;78,0.001;50,0.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,122,123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,122,123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,4;122,4;123,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,4;122,4;123,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,4;122,4;123,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,4;122,4;123,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,4;122,4;123,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,0.015;2,0.015;3,0.015;4,0.012;5,0.015;6,0.015;7,0.015;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,0.015;6,0.015;7,0.015;11,0.052;8,0.01;9,0.01;10,0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsGuildItemDrop</t>
-  </si>
-  <si>
-    <t>GuildPinExp</t>
-  </si>
-  <si>
-    <t>GuildExp</t>
-  </si>
-  <si>
-    <t>5,0.35;6,0.35;7,0.35;12,0.22;13,0.22;14,0.22;32,0.25;33,0.25;34,0.25;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54,0.01;57,0.01;58,0.01;59,0.01;83,0.01;79,0.03;80,0.03;81,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48,0.001;49,0.001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy/Footman_Lit_purple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy/Mage_Lit_purple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy/Mage_Lit_orange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48,0.0015;49,0.0015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48,0.0015;49,0.0015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05;58,0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy/Footman_Lit_green</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05;58,0.05;59,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05;58,0.05;61,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05;58,0.05;60,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05;58,0.05;62,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05;58,0.05;63,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05;58,0.05;64,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05;58,0.05;74,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48,0.0025;49,0.0025;50,0.001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48,0.0015;49,0.0015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会关卡</t>
-  </si>
-  <si>
-    <t>公会关卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefaultEquipItems</t>
-  </si>
-  <si>
-    <t>DefaultSkills</t>
-  </si>
-  <si>
-    <t>58,1;57,1;65,1;</t>
-  </si>
-  <si>
-    <t>58,1;57,1;65,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>122,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,4;122,4;</t>
-  </si>
-  <si>
-    <t>23,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,1;122,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,1;122,2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,1;122,3;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>122,4;23,2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>122,4;23,2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>122,4;23,3;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,122</t>
-  </si>
-  <si>
-    <t>23,122</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,0.15;36,0.15;43,0.15;30,0.05;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42,0.15;43,0.215;30,0.15;44,0.2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,4;122,4;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,4;122,4;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42,0.2;43,0.2;86,0.2;90,0.2;91,0.2;48,0.15;49,0.15;44,0.2;45,0.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54,0.003;55,0.003;58,0.003;59,0.003;60,0.003;61,0.003;62,0.003;63,0.003;64,0.003;74,0.003;83,0.003;84,0.003;85,0.003;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,0.015;19,0.015;20,0.015;21,0.015;27,0.015;28,0.015;29,0.01;41,0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,0.015;9,0.015;10,0.015;18,0.015;19,0.015;27,0.015;28,0.015;29,0.01;41,0.01;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,0.015;9,0.015;10,0.015;18,0.015;19,0.015;27,0.015;28,0.015;29,0.01;41,0.01;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss16</t>
-  </si>
-  <si>
-    <t>0,1,1</t>
-  </si>
-  <si>
-    <t>0,0,0.8</t>
-  </si>
-  <si>
-    <t>51,0.05;52,0.05;69,0.02;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51,0.05;52,0.05;69,0.02;67,0.05;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51,0.05;52,0.05;69,0.02;71,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51,0.05;52,0.05;69,0.02;72,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51,0.05;52,0.05;69,0.02;80,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51,0.05;52,0.05;69,0.02;79,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51,0.05;52,0.05;69,0.02;82,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51,0.05;52,0.05;69,0.02;85,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51,0.05;52,0.05;69,0.02;84,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89,0.18;87,0.18;88,0.18;86,0.375;90,0.375;48,0.15;49,0.15;50,0.15;44,0.2;45,0.15;46,0.05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2399,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS28" workbookViewId="0">
-      <selection activeCell="AT51" sqref="AT51"/>
+    <sheetView tabSelected="1" topLeftCell="AS2" workbookViewId="0">
+      <selection activeCell="AT19" sqref="AT19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2449,7 +2477,7 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2563,19 +2591,19 @@
         <v>121</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>125</v>
@@ -2828,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="AT3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.15">
@@ -5498,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="AT24" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.15">
@@ -5600,10 +5628,10 @@
         <v>1</v>
       </c>
       <c r="AH25" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI25" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AJ25" s="3">
         <v>2</v>
@@ -5630,7 +5658,7 @@
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
       <c r="AT25" s="3" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.15">
@@ -5755,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="AT26" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.15">
@@ -5880,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="AT27" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.15">
@@ -5982,10 +6010,10 @@
         <v>1</v>
       </c>
       <c r="AH28" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI28" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AJ28" s="3">
         <v>2</v>
@@ -6012,11 +6040,11 @@
         <v>8</v>
       </c>
       <c r="AR28" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="AS28" s="3"/>
       <c r="AT28" s="3" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.15">
@@ -6024,7 +6052,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E29">
         <v>110</v>
@@ -6141,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="AT29" t="s">
-        <v>143</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.15">
@@ -6149,7 +6177,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E30">
         <v>34</v>
@@ -6266,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="AT30" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.15">
@@ -6368,10 +6396,10 @@
         <v>1</v>
       </c>
       <c r="AH31" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI31" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ31" s="3">
         <v>2</v>
@@ -6398,11 +6426,11 @@
         <v>10</v>
       </c>
       <c r="AR31" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="AS31" s="3"/>
       <c r="AT31" s="3" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.15">
@@ -6527,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="AT32" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.15">
@@ -6535,7 +6563,7 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E33">
         <v>34</v>
@@ -6652,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="AT33" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.15">
@@ -6754,16 +6782,16 @@
         <v>1</v>
       </c>
       <c r="AH34" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI34" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ34" s="3">
         <v>2</v>
       </c>
       <c r="AK34" s="4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="AL34" s="3">
         <v>0.3</v>
@@ -6784,11 +6812,11 @@
         <v>20</v>
       </c>
       <c r="AR34" s="3" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AS34" s="3"/>
       <c r="AT34" s="3" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.15">
@@ -6913,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="AT35" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.15">
@@ -7038,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="AT36" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.15">
@@ -7140,16 +7168,16 @@
         <v>1</v>
       </c>
       <c r="AH37" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI37" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ37" s="3">
         <v>2</v>
       </c>
       <c r="AK37" s="4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="AL37" s="3">
         <v>0.3</v>
@@ -7170,11 +7198,11 @@
         <v>30</v>
       </c>
       <c r="AR37" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="AS37" s="3"/>
       <c r="AT37" s="3" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.15">
@@ -7182,7 +7210,7 @@
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E38">
         <v>110</v>
@@ -7299,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="AT38" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.15">
@@ -7424,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="AT39" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.15">
@@ -7526,16 +7554,16 @@
         <v>1</v>
       </c>
       <c r="AH40" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI40" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ40" s="3">
         <v>2</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="AL40" s="3">
         <v>0.3</v>
@@ -7556,11 +7584,11 @@
         <v>40</v>
       </c>
       <c r="AR40" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="AS40" s="3"/>
       <c r="AT40" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.15">
@@ -7685,7 +7713,7 @@
         <v>0</v>
       </c>
       <c r="AT41" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.15">
@@ -7810,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="AT42" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.15">
@@ -7912,16 +7940,16 @@
         <v>1</v>
       </c>
       <c r="AH43" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI43" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ43" s="3">
         <v>2</v>
       </c>
       <c r="AK43" s="4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="AL43" s="3">
         <v>0.3</v>
@@ -7942,11 +7970,11 @@
         <v>100</v>
       </c>
       <c r="AR43" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="AS43" s="3"/>
       <c r="AT43" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.15">
@@ -8048,10 +8076,10 @@
         <v>1</v>
       </c>
       <c r="AH44" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI44" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ44" s="3">
         <v>2</v>
@@ -8078,7 +8106,7 @@
       <c r="AR44" s="3"/>
       <c r="AS44" s="3"/>
       <c r="AT44" s="3" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.15">
@@ -8086,7 +8114,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D45" t="s">
         <v>133</v>
@@ -8206,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="AT45" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.15">
@@ -8214,7 +8242,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D46" t="s">
         <v>134</v>
@@ -8334,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="AT46" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.15">
@@ -8342,10 +8370,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C47" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>124</v>
@@ -8438,16 +8466,16 @@
         <v>1</v>
       </c>
       <c r="AH47" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI47" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ47" s="3">
         <v>2</v>
       </c>
       <c r="AK47" s="4" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="AL47" s="3">
         <v>0.3</v>
@@ -8468,13 +8496,13 @@
         <v>80</v>
       </c>
       <c r="AR47" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="AS47" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="AT47" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.15">
@@ -8482,10 +8510,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C48" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>124</v>
@@ -8578,16 +8606,16 @@
         <v>1</v>
       </c>
       <c r="AH48" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI48" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ48" s="3">
         <v>2</v>
       </c>
       <c r="AK48" s="4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="AL48" s="3">
         <v>0.3</v>
@@ -8608,13 +8636,13 @@
         <v>100</v>
       </c>
       <c r="AR48" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="AS48" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="AT48" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:46" x14ac:dyDescent="0.15">
@@ -8622,10 +8650,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C49" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>124</v>
@@ -8718,16 +8746,16 @@
         <v>1</v>
       </c>
       <c r="AH49" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI49" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ49" s="3">
         <v>2</v>
       </c>
       <c r="AK49" s="4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="AL49" s="3">
         <v>0.3</v>
@@ -8748,13 +8776,13 @@
         <v>200</v>
       </c>
       <c r="AR49" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="AS49" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AT49" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.15">
@@ -8762,10 +8790,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C50" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>124</v>
@@ -8858,16 +8886,16 @@
         <v>1</v>
       </c>
       <c r="AH50" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI50" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ50" s="3">
         <v>2</v>
       </c>
       <c r="AK50" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="AL50" s="3">
         <v>0.3</v>
@@ -8888,13 +8916,13 @@
         <v>200</v>
       </c>
       <c r="AR50" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="AS50" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AT50" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.15">
@@ -8902,10 +8930,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C51" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>124</v>
@@ -8998,16 +9026,16 @@
         <v>1</v>
       </c>
       <c r="AH51" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI51" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ51" s="3">
         <v>2</v>
       </c>
       <c r="AK51" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="AL51" s="3">
         <v>0.3</v>
@@ -9028,13 +9056,13 @@
         <v>250</v>
       </c>
       <c r="AR51" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="AS51" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AT51" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:46" x14ac:dyDescent="0.15">
@@ -9042,10 +9070,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>124</v>
@@ -9138,16 +9166,16 @@
         <v>1</v>
       </c>
       <c r="AH52" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI52" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ52" s="3">
         <v>2</v>
       </c>
       <c r="AK52" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="AL52" s="3">
         <v>0.3</v>
@@ -9168,13 +9196,13 @@
         <v>300</v>
       </c>
       <c r="AR52" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="AS52" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AT52" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:46" x14ac:dyDescent="0.15">
@@ -9182,10 +9210,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C53" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>124</v>
@@ -9278,16 +9306,16 @@
         <v>1</v>
       </c>
       <c r="AH53" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI53" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ53" s="3">
         <v>2</v>
       </c>
       <c r="AK53" s="4" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="AL53" s="3">
         <v>0.3</v>
@@ -9308,13 +9336,13 @@
         <v>310</v>
       </c>
       <c r="AR53" s="3" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="AS53" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AT53" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:46" x14ac:dyDescent="0.15">
@@ -9322,10 +9350,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C54" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>124</v>
@@ -9418,16 +9446,16 @@
         <v>1</v>
       </c>
       <c r="AH54" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI54" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ54" s="3">
         <v>2</v>
       </c>
       <c r="AK54" s="4" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="AL54" s="3">
         <v>0.3</v>
@@ -9448,13 +9476,13 @@
         <v>320</v>
       </c>
       <c r="AR54" s="3" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="AS54" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AT54" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.15">
@@ -9462,10 +9490,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C55" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>124</v>
@@ -9558,16 +9586,16 @@
         <v>1</v>
       </c>
       <c r="AH55" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI55" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ55" s="3">
         <v>2</v>
       </c>
       <c r="AK55" s="4" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="AL55" s="3">
         <v>0.3</v>
@@ -9588,13 +9616,13 @@
         <v>330</v>
       </c>
       <c r="AR55" s="3" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="AS55" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AT55" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.15">
@@ -9602,10 +9630,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C56" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>124</v>
@@ -9698,16 +9726,16 @@
         <v>1</v>
       </c>
       <c r="AH56" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI56" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ56" s="3">
         <v>2</v>
       </c>
       <c r="AK56" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="AL56" s="3">
         <v>0.3</v>
@@ -9728,13 +9756,13 @@
         <v>350</v>
       </c>
       <c r="AR56" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="AS56" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AT56" s="3" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.15">
@@ -9742,10 +9770,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C57" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>124</v>
@@ -9838,16 +9866,16 @@
         <v>1</v>
       </c>
       <c r="AH57" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI57" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ57" s="3">
         <v>2</v>
       </c>
       <c r="AK57" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="AL57" s="3">
         <v>0.3</v>
@@ -9868,13 +9896,13 @@
         <v>350</v>
       </c>
       <c r="AR57" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="AS57" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AT57" s="3" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.15">
@@ -9882,10 +9910,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C58" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>124</v>
@@ -9897,10 +9925,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="I58" s="3">
         <v>400000</v>
@@ -9978,16 +10006,16 @@
         <v>1</v>
       </c>
       <c r="AH58" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI58" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ58" s="3">
         <v>2</v>
       </c>
       <c r="AK58" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="AL58" s="3">
         <v>0.3</v>
@@ -10008,13 +10036,13 @@
         <v>350</v>
       </c>
       <c r="AR58" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="AS58" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AT58" s="3" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.15">
@@ -10022,10 +10050,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C59" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>124</v>
@@ -10037,10 +10065,10 @@
         <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="I59" s="3">
         <v>400000</v>
@@ -10118,16 +10146,16 @@
         <v>1</v>
       </c>
       <c r="AH59" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI59" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ59" s="3">
         <v>2</v>
       </c>
       <c r="AK59" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="AL59" s="3">
         <v>0.3</v>
@@ -10148,13 +10176,13 @@
         <v>350</v>
       </c>
       <c r="AR59" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="AS59" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AT59" s="3" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.15">
@@ -10162,10 +10190,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C60" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>124</v>
@@ -10177,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="I60" s="3">
         <v>400000</v>
@@ -10258,16 +10286,16 @@
         <v>1</v>
       </c>
       <c r="AH60" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI60" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ60" s="3">
         <v>2</v>
       </c>
       <c r="AK60" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="AL60" s="3">
         <v>0.3</v>
@@ -10288,13 +10316,13 @@
         <v>350</v>
       </c>
       <c r="AR60" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="AS60" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AT60" s="3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.15">
@@ -10302,10 +10330,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C61" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>124</v>
@@ -10317,10 +10345,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="I61" s="3">
         <v>400000</v>
@@ -10398,16 +10426,16 @@
         <v>1</v>
       </c>
       <c r="AH61" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI61" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ61" s="3">
         <v>2</v>
       </c>
       <c r="AK61" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="AL61" s="3">
         <v>0.3</v>
@@ -10428,13 +10456,13 @@
         <v>350</v>
       </c>
       <c r="AR61" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="AS61" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AT61" s="3" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.15">
@@ -10442,10 +10470,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C62" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>124</v>
@@ -10457,10 +10485,10 @@
         <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="I62" s="3">
         <v>400000</v>
@@ -10538,16 +10566,16 @@
         <v>1</v>
       </c>
       <c r="AH62" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI62" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ62" s="3">
         <v>2</v>
       </c>
       <c r="AK62" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="AL62" s="3">
         <v>0.3</v>
@@ -10568,13 +10596,13 @@
         <v>350</v>
       </c>
       <c r="AR62" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="AS62" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AT62" s="3" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:46" x14ac:dyDescent="0.15">
@@ -10582,10 +10610,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C63" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>124</v>
@@ -10597,10 +10625,10 @@
         <v>0</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="I63" s="3">
         <v>400000</v>
@@ -10678,16 +10706,16 @@
         <v>1</v>
       </c>
       <c r="AH63" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI63" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ63" s="3">
         <v>2</v>
       </c>
       <c r="AK63" s="4" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="AL63" s="3">
         <v>0.3</v>
@@ -10708,13 +10736,13 @@
         <v>350</v>
       </c>
       <c r="AR63" s="3" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="AS63" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AT63" s="3" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.15">
@@ -10722,10 +10750,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C64" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>124</v>
@@ -10737,10 +10765,10 @@
         <v>0</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="I64" s="3">
         <v>400000</v>
@@ -10818,16 +10846,16 @@
         <v>1</v>
       </c>
       <c r="AH64" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI64" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ64" s="3">
         <v>2</v>
       </c>
       <c r="AK64" s="4" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="AL64" s="3">
         <v>0.3</v>
@@ -10848,13 +10876,13 @@
         <v>350</v>
       </c>
       <c r="AR64" s="3" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="AS64" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AT64" s="3" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -2427,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS2" workbookViewId="0">
-      <selection activeCell="AT19" sqref="AT19"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2888,7 +2888,7 @@
         <v>75</v>
       </c>
       <c r="K4">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L4">
         <v>850</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -2427,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:AA4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3906,7 +3906,7 @@
         <v>700</v>
       </c>
       <c r="M12">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="N12">
         <v>1.5</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -2427,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7225,7 +7225,7 @@
         <v>104</v>
       </c>
       <c r="I38">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="J38">
         <v>300</v>
@@ -7237,7 +7237,7 @@
         <v>600</v>
       </c>
       <c r="M38">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N38">
         <v>1.5</v>
@@ -7350,7 +7350,7 @@
         <v>104</v>
       </c>
       <c r="I39">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J39">
         <v>300</v>
@@ -7362,7 +7362,7 @@
         <v>600</v>
       </c>
       <c r="M39">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N39">
         <v>4</v>
@@ -7611,7 +7611,7 @@
         <v>104</v>
       </c>
       <c r="I41">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="J41">
         <v>300</v>
@@ -7623,7 +7623,7 @@
         <v>600</v>
       </c>
       <c r="M41">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N41">
         <v>1.5</v>
@@ -7736,7 +7736,7 @@
         <v>104</v>
       </c>
       <c r="I42">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="J42">
         <v>300</v>
@@ -7748,7 +7748,7 @@
         <v>600</v>
       </c>
       <c r="M42">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N42">
         <v>4</v>
@@ -8132,7 +8132,7 @@
         <v>104</v>
       </c>
       <c r="I45">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="J45">
         <v>300</v>
@@ -8144,7 +8144,7 @@
         <v>600</v>
       </c>
       <c r="M45">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N45">
         <v>1.5</v>
@@ -8260,7 +8260,7 @@
         <v>104</v>
       </c>
       <c r="I46">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="J46">
         <v>300</v>
@@ -8272,7 +8272,7 @@
         <v>600</v>
       </c>
       <c r="M46">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N46">
         <v>4</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1744,18 +1744,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>47,0.05;57,0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Enemy/Mage_Lit_orange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>47,0.05;57,0.05;58,0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boss8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1991,26 +1983,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>89,0.18;87,0.18;88,0.18;86,0.375;90,0.375;48,0.15;49,0.15;50,0.15;44,0.2;45,0.15;46,0.05;77,0.05;78,0.05;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77,0.001;78,0.001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77,0.0015;78,0.0015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77,0.0015;78,0.0015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77,0.001;78,0.001;50,0.001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>23,122</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2044,6 +2016,34 @@
   </si>
   <si>
     <t>1,0.015;2,0.015;3,0.015;4,0.012;5,0.015;6,0.015;7,0.015;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89,0.1;87,0.1;88,0.1;86,0.18;90,0.18;48,0.15;49,0.15;50,0.15;44,0.2;45,0.15;46,0.05;77,0.05;78,0.05;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77,0.0008;78,0.0008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77,0.0008;78,0.0008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77,0.0012;78,0.0012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77,0.0008;78,0.0008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;70,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05;54,0.02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2427,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="AO19" workbookViewId="0">
+      <selection activeCell="AT56" sqref="AT56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2477,7 +2477,7 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2600,10 +2600,10 @@
         <v>145</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>125</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="AT24" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.15">
@@ -5658,7 +5658,7 @@
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
       <c r="AT25" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.15">
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="AT26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.15">
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="AT27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.15">
@@ -6040,11 +6040,11 @@
         <v>8</v>
       </c>
       <c r="AR28" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AS28" s="3"/>
       <c r="AT28" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.15">
@@ -6169,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="AT29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.15">
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="AT30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.15">
@@ -6426,11 +6426,11 @@
         <v>10</v>
       </c>
       <c r="AR31" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AS31" s="3"/>
       <c r="AT31" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.15">
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="AT32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.15">
@@ -6563,7 +6563,7 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E33">
         <v>34</v>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="AT33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.15">
@@ -6791,7 +6791,7 @@
         <v>2</v>
       </c>
       <c r="AK34" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AL34" s="3">
         <v>0.3</v>
@@ -6812,11 +6812,11 @@
         <v>20</v>
       </c>
       <c r="AR34" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AS34" s="3"/>
       <c r="AT34" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.15">
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="AT35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.15">
@@ -7066,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="AT36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.15">
@@ -7177,7 +7177,7 @@
         <v>2</v>
       </c>
       <c r="AK37" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AL37" s="3">
         <v>0.3</v>
@@ -7198,11 +7198,11 @@
         <v>30</v>
       </c>
       <c r="AR37" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AS37" s="3"/>
       <c r="AT37" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.15">
@@ -7210,7 +7210,7 @@
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E38">
         <v>110</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="AT38" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.15">
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="AT39" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.15">
@@ -7563,7 +7563,7 @@
         <v>2</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AL40" s="3">
         <v>0.3</v>
@@ -7584,11 +7584,11 @@
         <v>40</v>
       </c>
       <c r="AR40" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AS40" s="3"/>
       <c r="AT40" s="3" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.15">
@@ -7713,7 +7713,7 @@
         <v>0</v>
       </c>
       <c r="AT41" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.15">
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="AT42" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.15">
@@ -7949,7 +7949,7 @@
         <v>2</v>
       </c>
       <c r="AK43" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AL43" s="3">
         <v>0.3</v>
@@ -7970,7 +7970,7 @@
         <v>100</v>
       </c>
       <c r="AR43" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AS43" s="3"/>
       <c r="AT43" s="3" t="s">
@@ -8106,7 +8106,7 @@
       <c r="AR44" s="3"/>
       <c r="AS44" s="3"/>
       <c r="AT44" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.15">
@@ -8114,7 +8114,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D45" t="s">
         <v>133</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="AT45" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.15">
@@ -8242,7 +8242,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D46" t="s">
         <v>134</v>
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="AT46" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.15">
@@ -8373,7 +8373,7 @@
         <v>147</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>124</v>
@@ -8475,7 +8475,7 @@
         <v>2</v>
       </c>
       <c r="AK47" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AL47" s="3">
         <v>0.3</v>
@@ -8496,13 +8496,13 @@
         <v>80</v>
       </c>
       <c r="AR47" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AS47" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AT47" s="3" t="s">
-        <v>150</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.15">
@@ -8510,10 +8510,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>124</v>
@@ -8615,7 +8615,7 @@
         <v>2</v>
       </c>
       <c r="AK48" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AL48" s="3">
         <v>0.3</v>
@@ -8636,13 +8636,13 @@
         <v>100</v>
       </c>
       <c r="AR48" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AS48" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AT48" s="3" t="s">
-        <v>152</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:46" x14ac:dyDescent="0.15">
@@ -8650,10 +8650,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>124</v>
@@ -8755,7 +8755,7 @@
         <v>2</v>
       </c>
       <c r="AK49" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AL49" s="3">
         <v>0.3</v>
@@ -8776,13 +8776,13 @@
         <v>200</v>
       </c>
       <c r="AR49" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AS49" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AT49" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.15">
@@ -8790,10 +8790,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C50" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>124</v>
@@ -8895,7 +8895,7 @@
         <v>2</v>
       </c>
       <c r="AK50" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AL50" s="3">
         <v>0.3</v>
@@ -8916,13 +8916,13 @@
         <v>200</v>
       </c>
       <c r="AR50" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AS50" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AT50" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.15">
@@ -8930,10 +8930,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>124</v>
@@ -9035,7 +9035,7 @@
         <v>2</v>
       </c>
       <c r="AK51" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AL51" s="3">
         <v>0.3</v>
@@ -9056,13 +9056,13 @@
         <v>250</v>
       </c>
       <c r="AR51" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AS51" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AT51" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:46" x14ac:dyDescent="0.15">
@@ -9070,10 +9070,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C52" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>124</v>
@@ -9175,7 +9175,7 @@
         <v>2</v>
       </c>
       <c r="AK52" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AL52" s="3">
         <v>0.3</v>
@@ -9196,13 +9196,13 @@
         <v>300</v>
       </c>
       <c r="AR52" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AS52" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AT52" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:46" x14ac:dyDescent="0.15">
@@ -9210,10 +9210,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>124</v>
@@ -9315,7 +9315,7 @@
         <v>2</v>
       </c>
       <c r="AK53" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AL53" s="3">
         <v>0.3</v>
@@ -9336,13 +9336,13 @@
         <v>310</v>
       </c>
       <c r="AR53" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AS53" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AT53" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:46" x14ac:dyDescent="0.15">
@@ -9350,10 +9350,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>124</v>
@@ -9455,7 +9455,7 @@
         <v>2</v>
       </c>
       <c r="AK54" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AL54" s="3">
         <v>0.3</v>
@@ -9476,13 +9476,13 @@
         <v>320</v>
       </c>
       <c r="AR54" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AS54" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AT54" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.15">
@@ -9490,10 +9490,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C55" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>124</v>
@@ -9595,7 +9595,7 @@
         <v>2</v>
       </c>
       <c r="AK55" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AL55" s="3">
         <v>0.3</v>
@@ -9616,13 +9616,13 @@
         <v>330</v>
       </c>
       <c r="AR55" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AS55" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AT55" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.15">
@@ -9630,10 +9630,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C56" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>124</v>
@@ -9735,7 +9735,7 @@
         <v>2</v>
       </c>
       <c r="AK56" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AL56" s="3">
         <v>0.3</v>
@@ -9756,13 +9756,13 @@
         <v>350</v>
       </c>
       <c r="AR56" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AS56" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AT56" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.15">
@@ -9770,10 +9770,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C57" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>124</v>
@@ -9875,7 +9875,7 @@
         <v>2</v>
       </c>
       <c r="AK57" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AL57" s="3">
         <v>0.3</v>
@@ -9896,13 +9896,13 @@
         <v>350</v>
       </c>
       <c r="AR57" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AS57" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AT57" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.15">
@@ -9910,10 +9910,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C58" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>124</v>
@@ -9925,10 +9925,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I58" s="3">
         <v>400000</v>
@@ -10015,7 +10015,7 @@
         <v>2</v>
       </c>
       <c r="AK58" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AL58" s="3">
         <v>0.3</v>
@@ -10036,13 +10036,13 @@
         <v>350</v>
       </c>
       <c r="AR58" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AS58" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AT58" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.15">
@@ -10050,10 +10050,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C59" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>124</v>
@@ -10065,10 +10065,10 @@
         <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I59" s="3">
         <v>400000</v>
@@ -10155,7 +10155,7 @@
         <v>2</v>
       </c>
       <c r="AK59" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AL59" s="3">
         <v>0.3</v>
@@ -10176,13 +10176,13 @@
         <v>350</v>
       </c>
       <c r="AR59" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AS59" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AT59" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.15">
@@ -10190,10 +10190,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C60" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>124</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I60" s="3">
         <v>400000</v>
@@ -10295,7 +10295,7 @@
         <v>2</v>
       </c>
       <c r="AK60" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AL60" s="3">
         <v>0.3</v>
@@ -10316,13 +10316,13 @@
         <v>350</v>
       </c>
       <c r="AR60" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AS60" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AT60" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.15">
@@ -10330,10 +10330,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C61" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>124</v>
@@ -10345,10 +10345,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I61" s="3">
         <v>400000</v>
@@ -10435,7 +10435,7 @@
         <v>2</v>
       </c>
       <c r="AK61" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AL61" s="3">
         <v>0.3</v>
@@ -10456,13 +10456,13 @@
         <v>350</v>
       </c>
       <c r="AR61" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AS61" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AT61" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.15">
@@ -10470,10 +10470,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C62" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>124</v>
@@ -10485,10 +10485,10 @@
         <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I62" s="3">
         <v>400000</v>
@@ -10575,7 +10575,7 @@
         <v>2</v>
       </c>
       <c r="AK62" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AL62" s="3">
         <v>0.3</v>
@@ -10596,13 +10596,13 @@
         <v>350</v>
       </c>
       <c r="AR62" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AS62" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AT62" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:46" x14ac:dyDescent="0.15">
@@ -10610,10 +10610,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C63" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>124</v>
@@ -10625,10 +10625,10 @@
         <v>0</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I63" s="3">
         <v>400000</v>
@@ -10715,7 +10715,7 @@
         <v>2</v>
       </c>
       <c r="AK63" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AL63" s="3">
         <v>0.3</v>
@@ -10736,13 +10736,13 @@
         <v>350</v>
       </c>
       <c r="AR63" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="AS63" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AT63" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.15">
@@ -10750,10 +10750,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C64" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>124</v>
@@ -10765,10 +10765,10 @@
         <v>0</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I64" s="3">
         <v>400000</v>
@@ -10855,7 +10855,7 @@
         <v>2</v>
       </c>
       <c r="AK64" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AL64" s="3">
         <v>0.3</v>
@@ -10876,13 +10876,13 @@
         <v>350</v>
       </c>
       <c r="AR64" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AS64" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AT64" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1812,238 +1812,238 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会关卡</t>
+  </si>
+  <si>
+    <t>公会关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultEquipItems</t>
+  </si>
+  <si>
+    <t>DefaultSkills</t>
+  </si>
+  <si>
+    <t>58,1;57,1;65,1;</t>
+  </si>
+  <si>
+    <t>58,1;57,1;65,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,4;122,4;</t>
+  </si>
+  <si>
+    <t>23,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,1;122,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,1;122,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,1;122,3;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122,4;23,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122,4;23,2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122,4;23,3;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,122</t>
+  </si>
+  <si>
+    <t>23,122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,4;122,4;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,4;122,4;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54,0.003;55,0.003;58,0.003;59,0.003;60,0.003;61,0.003;62,0.003;63,0.003;64,0.003;74,0.003;83,0.003;84,0.003;85,0.003;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss16</t>
+  </si>
+  <si>
+    <t>0,1,1</t>
+  </si>
+  <si>
+    <t>0,0,0.8</t>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;67,0.05;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;71,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;72,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;80,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;79,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;82,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;85,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;84,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,0.35;6,0.35;7,0.35;12,0.22;14,0.22;32,0.25;33,0.25;34,0.25;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,0.015;6,0.015;7,0.015;8,0.01;9,0.01;10,0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,0.35;9,0.35;10,0.35;18,0.32;19,0.32;20,0.32;21,0.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32,0.015;33,0.015;34,0.015;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,0.15;36,0.15;43,0.15;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,0.015;19,0.015;27,0.015;28,0.015;29,0.01;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42,0.15;43,0.215;30,0.15;44,0.2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,0.015;19,0.015;20,0.015;21,0.015;41,0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,0.015;19,0.015;20,0.015;21,0.015;41,0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42,0.2;43,0.2;86,0.2;90,0.2;91,0.2;48,0.15;49,0.15;44,0.2;45,0.15;77,0.05;78,0.05;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,122,123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,122,123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,4;122,4;123,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,4;122,4;123,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,4;122,4;123,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,4;122,4;123,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,4;122,4;123,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0.015;2,0.015;3,0.015;4,0.012;5,0.015;6,0.015;7,0.015;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89,0.1;87,0.1;88,0.1;86,0.18;90,0.18;48,0.15;49,0.15;50,0.15;44,0.2;45,0.15;46,0.05;77,0.05;78,0.05;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77,0.0008;78,0.0008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77,0.0008;78,0.0008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77,0.0012;78,0.0012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77,0.0008;78,0.0008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;70,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05;54,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>47,0.05;57,0.05;58,0.05;74,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会关卡</t>
-  </si>
-  <si>
-    <t>公会关卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefaultEquipItems</t>
-  </si>
-  <si>
-    <t>DefaultSkills</t>
-  </si>
-  <si>
-    <t>58,1;57,1;65,1;</t>
-  </si>
-  <si>
-    <t>58,1;57,1;65,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>122,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,4;122,4;</t>
-  </si>
-  <si>
-    <t>23,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,1;122,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,1;122,2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,1;122,3;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>122,4;23,2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>122,4;23,2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>122,4;23,3;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,122</t>
-  </si>
-  <si>
-    <t>23,122</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,4;122,4;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,4;122,4;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54,0.003;55,0.003;58,0.003;59,0.003;60,0.003;61,0.003;62,0.003;63,0.003;64,0.003;74,0.003;83,0.003;84,0.003;85,0.003;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss16</t>
-  </si>
-  <si>
-    <t>0,1,1</t>
-  </si>
-  <si>
-    <t>0,0,0.8</t>
-  </si>
-  <si>
-    <t>51,0.05;52,0.05;69,0.02;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51,0.05;52,0.05;69,0.02;67,0.05;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51,0.05;52,0.05;69,0.02;71,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51,0.05;52,0.05;69,0.02;72,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51,0.05;52,0.05;69,0.02;80,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51,0.05;52,0.05;69,0.02;79,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51,0.05;52,0.05;69,0.02;82,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51,0.05;52,0.05;69,0.02;85,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51,0.05;52,0.05;69,0.02;84,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,0.35;6,0.35;7,0.35;12,0.22;14,0.22;32,0.25;33,0.25;34,0.25;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,0.015;6,0.015;7,0.015;8,0.01;9,0.01;10,0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,0.35;9,0.35;10,0.35;18,0.32;19,0.32;20,0.32;21,0.21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32,0.015;33,0.015;34,0.015;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,0.15;36,0.15;43,0.15;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,0.015;19,0.015;27,0.015;28,0.015;29,0.01;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42,0.15;43,0.215;30,0.15;44,0.2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,0.015;19,0.015;20,0.015;21,0.015;41,0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,0.015;19,0.015;20,0.015;21,0.015;41,0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42,0.2;43,0.2;86,0.2;90,0.2;91,0.2;48,0.15;49,0.15;44,0.2;45,0.15;77,0.05;78,0.05;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,122</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,122,123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,122,123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,4;122,4;123,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,4;122,4;123,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,4;122,4;123,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,4;122,4;123,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,4;122,4;123,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,0.015;2,0.015;3,0.015;4,0.012;5,0.015;6,0.015;7,0.015;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89,0.1;87,0.1;88,0.1;86,0.18;90,0.18;48,0.15;49,0.15;50,0.15;44,0.2;45,0.15;46,0.05;77,0.05;78,0.05;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77,0.0008;78,0.0008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77,0.0008;78,0.0008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77,0.0012;78,0.0012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77,0.0008;78,0.0008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05;70,0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05;58,0.05;54,0.02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2427,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO19" workbookViewId="0">
-      <selection activeCell="AT56" sqref="AT56"/>
+    <sheetView tabSelected="1" topLeftCell="I18" workbookViewId="0">
+      <selection activeCell="AT55" sqref="AT55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2477,7 +2477,7 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2600,10 +2600,10 @@
         <v>145</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>125</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="AT24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.15">
@@ -5658,7 +5658,7 @@
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
       <c r="AT25" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.15">
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="AT26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.15">
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="AT27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.15">
@@ -6040,11 +6040,11 @@
         <v>8</v>
       </c>
       <c r="AR28" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AS28" s="3"/>
       <c r="AT28" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.15">
@@ -6169,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="AT29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.15">
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="AT30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.15">
@@ -6426,11 +6426,11 @@
         <v>10</v>
       </c>
       <c r="AR31" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AS31" s="3"/>
       <c r="AT31" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.15">
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="AT32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.15">
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="AT33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.15">
@@ -6791,7 +6791,7 @@
         <v>2</v>
       </c>
       <c r="AK34" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AL34" s="3">
         <v>0.3</v>
@@ -6812,11 +6812,11 @@
         <v>20</v>
       </c>
       <c r="AR34" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AS34" s="3"/>
       <c r="AT34" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.15">
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="AT35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.15">
@@ -7066,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="AT36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.15">
@@ -7177,7 +7177,7 @@
         <v>2</v>
       </c>
       <c r="AK37" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AL37" s="3">
         <v>0.3</v>
@@ -7198,11 +7198,11 @@
         <v>30</v>
       </c>
       <c r="AR37" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AS37" s="3"/>
       <c r="AT37" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.15">
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="AT38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.15">
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="AT39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.15">
@@ -7563,7 +7563,7 @@
         <v>2</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AL40" s="3">
         <v>0.3</v>
@@ -7584,11 +7584,11 @@
         <v>40</v>
       </c>
       <c r="AR40" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AS40" s="3"/>
       <c r="AT40" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.15">
@@ -7713,7 +7713,7 @@
         <v>0</v>
       </c>
       <c r="AT41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.15">
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="AT42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.15">
@@ -7949,7 +7949,7 @@
         <v>2</v>
       </c>
       <c r="AK43" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AL43" s="3">
         <v>0.3</v>
@@ -7964,13 +7964,13 @@
         <v>1</v>
       </c>
       <c r="AP43" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ43" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AR43" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AS43" s="3"/>
       <c r="AT43" s="3" t="s">
@@ -8106,7 +8106,7 @@
       <c r="AR44" s="3"/>
       <c r="AS44" s="3"/>
       <c r="AT44" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.15">
@@ -8114,7 +8114,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D45" t="s">
         <v>133</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="AT45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.15">
@@ -8242,7 +8242,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D46" t="s">
         <v>134</v>
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="AT46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.15">
@@ -8373,7 +8373,7 @@
         <v>147</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>124</v>
@@ -8475,7 +8475,7 @@
         <v>2</v>
       </c>
       <c r="AK47" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL47" s="3">
         <v>0.3</v>
@@ -8490,19 +8490,19 @@
         <v>1</v>
       </c>
       <c r="AP47" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AQ47" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AR47" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AS47" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AT47" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.15">
@@ -8513,7 +8513,7 @@
         <v>151</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>124</v>
@@ -8615,7 +8615,7 @@
         <v>2</v>
       </c>
       <c r="AK48" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AL48" s="3">
         <v>0.3</v>
@@ -8630,19 +8630,19 @@
         <v>1</v>
       </c>
       <c r="AP48" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ48" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AR48" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AS48" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AT48" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:46" x14ac:dyDescent="0.15">
@@ -8653,7 +8653,7 @@
         <v>152</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>124</v>
@@ -8755,7 +8755,7 @@
         <v>2</v>
       </c>
       <c r="AK49" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AL49" s="3">
         <v>0.3</v>
@@ -8770,16 +8770,16 @@
         <v>1</v>
       </c>
       <c r="AP49" s="3">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AQ49" s="3">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="AR49" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AS49" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AT49" s="3" t="s">
         <v>155</v>
@@ -8793,7 +8793,7 @@
         <v>153</v>
       </c>
       <c r="C50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>124</v>
@@ -8895,7 +8895,7 @@
         <v>2</v>
       </c>
       <c r="AK50" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL50" s="3">
         <v>0.3</v>
@@ -8910,16 +8910,16 @@
         <v>1</v>
       </c>
       <c r="AP50" s="3">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AQ50" s="3">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="AR50" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AS50" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AT50" s="3" t="s">
         <v>156</v>
@@ -8933,7 +8933,7 @@
         <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>124</v>
@@ -9035,7 +9035,7 @@
         <v>2</v>
       </c>
       <c r="AK51" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL51" s="3">
         <v>0.3</v>
@@ -9050,16 +9050,16 @@
         <v>1</v>
       </c>
       <c r="AP51" s="3">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="AQ51" s="3">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="AR51" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AS51" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AT51" s="3" t="s">
         <v>158</v>
@@ -9073,7 +9073,7 @@
         <v>157</v>
       </c>
       <c r="C52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>124</v>
@@ -9175,7 +9175,7 @@
         <v>2</v>
       </c>
       <c r="AK52" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL52" s="3">
         <v>0.3</v>
@@ -9190,16 +9190,16 @@
         <v>1</v>
       </c>
       <c r="AP52" s="3">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="AQ52" s="3">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="AR52" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AS52" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AT52" s="3" t="s">
         <v>159</v>
@@ -9213,7 +9213,7 @@
         <v>161</v>
       </c>
       <c r="C53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>124</v>
@@ -9315,7 +9315,7 @@
         <v>2</v>
       </c>
       <c r="AK53" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AL53" s="3">
         <v>0.3</v>
@@ -9330,16 +9330,16 @@
         <v>1</v>
       </c>
       <c r="AP53" s="3">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AQ53" s="3">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="AR53" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AS53" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AT53" s="3" t="s">
         <v>165</v>
@@ -9353,7 +9353,7 @@
         <v>162</v>
       </c>
       <c r="C54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>124</v>
@@ -9455,7 +9455,7 @@
         <v>2</v>
       </c>
       <c r="AK54" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AL54" s="3">
         <v>0.3</v>
@@ -9470,16 +9470,16 @@
         <v>1</v>
       </c>
       <c r="AP54" s="3">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AQ54" s="3">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="AR54" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AS54" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AT54" s="3" t="s">
         <v>166</v>
@@ -9493,7 +9493,7 @@
         <v>163</v>
       </c>
       <c r="C55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>124</v>
@@ -9595,7 +9595,7 @@
         <v>2</v>
       </c>
       <c r="AK55" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AL55" s="3">
         <v>0.3</v>
@@ -9610,19 +9610,19 @@
         <v>1</v>
       </c>
       <c r="AP55" s="3">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AQ55" s="3">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AR55" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AS55" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AT55" s="3" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.15">
@@ -9633,7 +9633,7 @@
         <v>164</v>
       </c>
       <c r="C56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>124</v>
@@ -9735,7 +9735,7 @@
         <v>2</v>
       </c>
       <c r="AK56" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL56" s="3">
         <v>0.3</v>
@@ -9750,19 +9750,19 @@
         <v>1</v>
       </c>
       <c r="AP56" s="3">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="AQ56" s="3">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="AR56" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AS56" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AT56" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.15">
@@ -9773,7 +9773,7 @@
         <v>164</v>
       </c>
       <c r="C57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>124</v>
@@ -9875,7 +9875,7 @@
         <v>2</v>
       </c>
       <c r="AK57" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL57" s="3">
         <v>0.3</v>
@@ -9890,19 +9890,19 @@
         <v>1</v>
       </c>
       <c r="AP57" s="3">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="AQ57" s="3">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="AR57" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AS57" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AT57" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.15">
@@ -9910,10 +9910,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>124</v>
@@ -9925,10 +9925,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="I58" s="3">
         <v>400000</v>
@@ -10015,7 +10015,7 @@
         <v>2</v>
       </c>
       <c r="AK58" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL58" s="3">
         <v>0.3</v>
@@ -10030,19 +10030,19 @@
         <v>1</v>
       </c>
       <c r="AP58" s="3">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="AQ58" s="3">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="AR58" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AS58" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AT58" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.15">
@@ -10050,10 +10050,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>124</v>
@@ -10065,10 +10065,10 @@
         <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="I59" s="3">
         <v>400000</v>
@@ -10155,7 +10155,7 @@
         <v>2</v>
       </c>
       <c r="AK59" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL59" s="3">
         <v>0.3</v>
@@ -10170,19 +10170,19 @@
         <v>1</v>
       </c>
       <c r="AP59" s="3">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="AQ59" s="3">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="AR59" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AS59" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AT59" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.15">
@@ -10190,10 +10190,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>124</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="G60" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="I60" s="3">
         <v>400000</v>
@@ -10295,7 +10295,7 @@
         <v>2</v>
       </c>
       <c r="AK60" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL60" s="3">
         <v>0.3</v>
@@ -10310,19 +10310,19 @@
         <v>1</v>
       </c>
       <c r="AP60" s="3">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="AQ60" s="3">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="AR60" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AS60" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AT60" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.15">
@@ -10330,10 +10330,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>124</v>
@@ -10345,10 +10345,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="I61" s="3">
         <v>400000</v>
@@ -10435,7 +10435,7 @@
         <v>2</v>
       </c>
       <c r="AK61" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL61" s="3">
         <v>0.3</v>
@@ -10450,19 +10450,19 @@
         <v>1</v>
       </c>
       <c r="AP61" s="3">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="AQ61" s="3">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="AR61" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AS61" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AT61" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.15">
@@ -10470,10 +10470,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>124</v>
@@ -10485,10 +10485,10 @@
         <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="I62" s="3">
         <v>400000</v>
@@ -10575,7 +10575,7 @@
         <v>2</v>
       </c>
       <c r="AK62" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL62" s="3">
         <v>0.3</v>
@@ -10590,19 +10590,19 @@
         <v>1</v>
       </c>
       <c r="AP62" s="3">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AQ62" s="3">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="AR62" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AS62" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AT62" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:46" x14ac:dyDescent="0.15">
@@ -10610,10 +10610,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>124</v>
@@ -10625,10 +10625,10 @@
         <v>0</v>
       </c>
       <c r="G63" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="I63" s="3">
         <v>400000</v>
@@ -10715,7 +10715,7 @@
         <v>2</v>
       </c>
       <c r="AK63" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AL63" s="3">
         <v>0.3</v>
@@ -10730,19 +10730,19 @@
         <v>1</v>
       </c>
       <c r="AP63" s="3">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AQ63" s="3">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="AR63" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AS63" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AT63" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.15">
@@ -10750,10 +10750,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>124</v>
@@ -10765,10 +10765,10 @@
         <v>0</v>
       </c>
       <c r="G64" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="I64" s="3">
         <v>400000</v>
@@ -10855,7 +10855,7 @@
         <v>2</v>
       </c>
       <c r="AK64" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AL64" s="3">
         <v>0.3</v>
@@ -10870,19 +10870,19 @@
         <v>1</v>
       </c>
       <c r="AP64" s="3">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AQ64" s="3">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="AR64" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AS64" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AT64" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1939,18 +1939,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5,0.35;6,0.35;7,0.35;12,0.22;14,0.22;32,0.25;33,0.25;34,0.25;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5,0.015;6,0.015;7,0.015;8,0.01;9,0.01;10,0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8,0.35;9,0.35;10,0.35;18,0.32;19,0.32;20,0.32;21,0.21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>32,0.015;33,0.015;34,0.015;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1959,14 +1951,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18,0.015;19,0.015;27,0.015;28,0.015;29,0.01;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42,0.15;43,0.215;30,0.15;44,0.2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18,0.015;19,0.015;20,0.015;21,0.015;41,0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1975,10 +1959,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>42,0.2;43,0.2;86,0.2;90,0.2;91,0.2;48,0.15;49,0.15;44,0.2;45,0.15;77,0.05;78,0.05;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>23,122</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2015,10 +1995,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>89,0.1;87,0.1;88,0.1;86,0.18;90,0.18;48,0.15;49,0.15;50,0.15;44,0.2;45,0.15;46,0.05;77,0.05;78,0.05;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>77,0.0008;78,0.0008</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2044,6 +2020,30 @@
   </si>
   <si>
     <t>47,0.05;57,0.05;58,0.05;74,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,0.25;6,0.25;7,0.25;12,0.12;14,0.12;32,0.15;33,0.15;34,0.15;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,0.25;9,0.25;10,0.25;18,0.22;19,0.22;20,0.22;21,0.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,0.005;19,0.005;27,0.005;28,0.005;29,0.001;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42,0.15;43,0.15;30,0.05;44,0.1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42,0.2;43,0.2;86,0.1;90,0.1;91,0.1;48,0.05;49,0.05;44,0.1;45,0.05;77,0.05;78,0.05;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89,0.1;87,0.1;88,0.1;94,0.1;86,0.18;90,0.18;48,0.15;49,0.15;50,0.15;44,0.2;45,0.15;46,0.05;77,0.05;78,0.05;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2427,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I18" workbookViewId="0">
-      <selection activeCell="AT55" sqref="AT55"/>
+    <sheetView tabSelected="1" topLeftCell="AO7" workbookViewId="0">
+      <selection activeCell="AT41" sqref="AT41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="AT24" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.15">
@@ -5658,7 +5658,7 @@
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
       <c r="AT25" s="3" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.15">
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="AT26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.15">
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="AT27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.15">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="AS28" s="3"/>
       <c r="AT28" s="3" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.15">
@@ -6169,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="AT29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.15">
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="AT30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.15">
@@ -6430,7 +6430,7 @@
       </c>
       <c r="AS31" s="3"/>
       <c r="AT31" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.15">
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="AT32" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.15">
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="AT33" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.15">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="AS34" s="3"/>
       <c r="AT34" s="3" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.15">
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="AT35" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.15">
@@ -7066,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="AT36" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.15">
@@ -7202,7 +7202,7 @@
       </c>
       <c r="AS37" s="3"/>
       <c r="AT37" s="3" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.15">
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="AT38" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.15">
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="AT39" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.15">
@@ -7588,7 +7588,7 @@
       </c>
       <c r="AS40" s="3"/>
       <c r="AT40" s="3" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.15">
@@ -7713,7 +7713,7 @@
         <v>0</v>
       </c>
       <c r="AT41" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.15">
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="AT42" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.15">
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="AT45" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.15">
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="AT46" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.15">
@@ -8475,7 +8475,7 @@
         <v>2</v>
       </c>
       <c r="AK47" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AL47" s="3">
         <v>0.3</v>
@@ -8502,7 +8502,7 @@
         <v>173</v>
       </c>
       <c r="AT47" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.15">
@@ -8642,7 +8642,7 @@
         <v>173</v>
       </c>
       <c r="AT48" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:46" x14ac:dyDescent="0.15">
@@ -9315,7 +9315,7 @@
         <v>2</v>
       </c>
       <c r="AK53" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AL53" s="3">
         <v>0.3</v>
@@ -9336,7 +9336,7 @@
         <v>80</v>
       </c>
       <c r="AR53" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AS53" s="3" t="s">
         <v>172</v>
@@ -9455,7 +9455,7 @@
         <v>2</v>
       </c>
       <c r="AK54" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AL54" s="3">
         <v>0.3</v>
@@ -9476,7 +9476,7 @@
         <v>80</v>
       </c>
       <c r="AR54" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AS54" s="3" t="s">
         <v>172</v>
@@ -9595,7 +9595,7 @@
         <v>2</v>
       </c>
       <c r="AK55" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AL55" s="3">
         <v>0.3</v>
@@ -9616,13 +9616,13 @@
         <v>80</v>
       </c>
       <c r="AR55" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AS55" s="3" t="s">
         <v>172</v>
       </c>
       <c r="AT55" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.15">
@@ -10715,7 +10715,7 @@
         <v>2</v>
       </c>
       <c r="AK63" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AL63" s="3">
         <v>0.3</v>
@@ -10736,7 +10736,7 @@
         <v>80</v>
       </c>
       <c r="AR63" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AS63" s="3" t="s">
         <v>172</v>
@@ -10855,7 +10855,7 @@
         <v>2</v>
       </c>
       <c r="AK64" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AL64" s="3">
         <v>0.3</v>
@@ -10876,7 +10876,7 @@
         <v>80</v>
       </c>
       <c r="AR64" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AS64" s="3" t="s">
         <v>172</v>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1170,7 +1170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="231">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2044,6 +2044,18 @@
   </si>
   <si>
     <t>89,0.1;87,0.1;88,0.1;94,0.1;86,0.18;90,0.18;48,0.15;49,0.15;50,0.15;44,0.2;45,0.15;46,0.05;77,0.05;78,0.05;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss奇兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夺宝奇兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2425,10 +2437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT64"/>
+  <dimension ref="A1:AT65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO7" workbookViewId="0">
-      <selection activeCell="AT41" sqref="AT41"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6809,7 +6821,7 @@
         <v>20</v>
       </c>
       <c r="AQ34" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AR34" s="3" t="s">
         <v>177</v>
@@ -7195,7 +7207,7 @@
         <v>30</v>
       </c>
       <c r="AQ37" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR37" s="3" t="s">
         <v>178</v>
@@ -7581,7 +7593,7 @@
         <v>40</v>
       </c>
       <c r="AQ40" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AR40" s="3" t="s">
         <v>179</v>
@@ -7967,7 +7979,7 @@
         <v>50</v>
       </c>
       <c r="AQ43" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AR43" s="3" t="s">
         <v>180</v>
@@ -8493,7 +8505,7 @@
         <v>50</v>
       </c>
       <c r="AQ47" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AR47" s="3" t="s">
         <v>181</v>
@@ -8633,7 +8645,7 @@
         <v>50</v>
       </c>
       <c r="AQ48" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AR48" s="3" t="s">
         <v>182</v>
@@ -8773,7 +8785,7 @@
         <v>50</v>
       </c>
       <c r="AQ49" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AR49" s="3" t="s">
         <v>185</v>
@@ -8913,7 +8925,7 @@
         <v>50</v>
       </c>
       <c r="AQ50" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AR50" s="3" t="s">
         <v>186</v>
@@ -9053,7 +9065,7 @@
         <v>50</v>
       </c>
       <c r="AQ51" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AR51" s="3" t="s">
         <v>175</v>
@@ -9193,7 +9205,7 @@
         <v>50</v>
       </c>
       <c r="AQ52" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AR52" s="3" t="s">
         <v>175</v>
@@ -9333,7 +9345,7 @@
         <v>80</v>
       </c>
       <c r="AQ53" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AR53" s="3" t="s">
         <v>209</v>
@@ -9473,7 +9485,7 @@
         <v>80</v>
       </c>
       <c r="AQ54" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AR54" s="3" t="s">
         <v>210</v>
@@ -9613,7 +9625,7 @@
         <v>80</v>
       </c>
       <c r="AQ55" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AR55" s="3" t="s">
         <v>211</v>
@@ -9753,7 +9765,7 @@
         <v>50</v>
       </c>
       <c r="AQ56" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AR56" s="3" t="s">
         <v>175</v>
@@ -9893,7 +9905,7 @@
         <v>50</v>
       </c>
       <c r="AQ57" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AR57" s="3" t="s">
         <v>175</v>
@@ -10033,7 +10045,7 @@
         <v>50</v>
       </c>
       <c r="AQ58" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AR58" s="3" t="s">
         <v>175</v>
@@ -10173,7 +10185,7 @@
         <v>50</v>
       </c>
       <c r="AQ59" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AR59" s="3" t="s">
         <v>175</v>
@@ -10313,7 +10325,7 @@
         <v>50</v>
       </c>
       <c r="AQ60" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AR60" s="3" t="s">
         <v>175</v>
@@ -10453,7 +10465,7 @@
         <v>50</v>
       </c>
       <c r="AQ61" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AR61" s="3" t="s">
         <v>175</v>
@@ -10593,7 +10605,7 @@
         <v>80</v>
       </c>
       <c r="AQ62" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AR62" s="3" t="s">
         <v>175</v>
@@ -10733,7 +10745,7 @@
         <v>80</v>
       </c>
       <c r="AQ63" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AR63" s="3" t="s">
         <v>212</v>
@@ -10873,7 +10885,7 @@
         <v>80</v>
       </c>
       <c r="AQ64" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AR64" s="3" t="s">
         <v>213</v>
@@ -10883,6 +10895,144 @@
       </c>
       <c r="AT64" s="3" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E65" s="3">
+        <v>111</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I65" s="3">
+        <v>50</v>
+      </c>
+      <c r="J65" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K65" s="3">
+        <v>250</v>
+      </c>
+      <c r="L65" s="3">
+        <v>600</v>
+      </c>
+      <c r="M65" s="3">
+        <v>140</v>
+      </c>
+      <c r="N65" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O65" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>20</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>1</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG65" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH65" s="3">
+        <v>8</v>
+      </c>
+      <c r="AI65" s="3">
+        <v>12</v>
+      </c>
+      <c r="AJ65" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK65" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL65" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AM65" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN65" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO65" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP65" s="3">
+        <v>40</v>
+      </c>
+      <c r="AQ65" s="3">
+        <v>20</v>
+      </c>
+      <c r="AR65" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AS65" s="3"/>
+      <c r="AT65" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1170,7 +1170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="233">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2056,6 +2056,14 @@
   </si>
   <si>
     <t>200,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss3a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2437,10 +2445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT65"/>
+  <dimension ref="A1:AT68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2750,6 +2758,9 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="D3" t="s">
         <v>122</v>
       </c>
@@ -5420,6 +5431,9 @@
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
       <c r="D24" t="s">
         <v>123</v>
       </c>
@@ -5548,7 +5562,9 @@
       <c r="B25" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
       <c r="D25" s="3" t="s">
         <v>124</v>
       </c>
@@ -5677,6 +5693,9 @@
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
       <c r="D26" t="s">
         <v>128</v>
       </c>
@@ -5802,6 +5821,9 @@
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
       <c r="D27" t="s">
         <v>129</v>
       </c>
@@ -5930,7 +5952,9 @@
       <c r="B28" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3">
+        <v>6</v>
+      </c>
       <c r="D28" s="3" t="s">
         <v>124</v>
       </c>
@@ -6063,6 +6087,9 @@
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
       <c r="D29" t="s">
         <v>148</v>
       </c>
@@ -6188,6 +6215,9 @@
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
       <c r="D30" t="s">
         <v>149</v>
       </c>
@@ -6316,7 +6346,9 @@
       <c r="B31" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3">
+        <v>8</v>
+      </c>
       <c r="D31" s="3" t="s">
         <v>124</v>
       </c>
@@ -6449,6 +6481,9 @@
       <c r="A32">
         <v>31</v>
       </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
       <c r="D32" t="s">
         <v>136</v>
       </c>
@@ -6574,6 +6609,9 @@
       <c r="A33">
         <v>32</v>
       </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
       <c r="D33" t="s">
         <v>150</v>
       </c>
@@ -6702,7 +6740,9 @@
       <c r="B34" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="3">
+        <v>10</v>
+      </c>
       <c r="D34" s="3" t="s">
         <v>124</v>
       </c>
@@ -6835,6 +6875,9 @@
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="C35">
+        <v>12</v>
+      </c>
       <c r="D35" t="s">
         <v>137</v>
       </c>
@@ -6960,6 +7003,9 @@
       <c r="A36">
         <v>35</v>
       </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
       <c r="D36" t="s">
         <v>138</v>
       </c>
@@ -7088,7 +7134,9 @@
       <c r="B37" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3">
+        <v>12</v>
+      </c>
       <c r="D37" s="3" t="s">
         <v>124</v>
       </c>
@@ -7221,6 +7269,9 @@
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="C38">
+        <v>13</v>
+      </c>
       <c r="D38" t="s">
         <v>154</v>
       </c>
@@ -7346,6 +7397,9 @@
       <c r="A39">
         <v>38</v>
       </c>
+      <c r="C39">
+        <v>13</v>
+      </c>
       <c r="D39" t="s">
         <v>122</v>
       </c>
@@ -7474,7 +7528,9 @@
       <c r="B40" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3">
+        <v>13</v>
+      </c>
       <c r="D40" s="3" t="s">
         <v>124</v>
       </c>
@@ -7607,6 +7663,9 @@
       <c r="A41">
         <v>40</v>
       </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
       <c r="D41" t="s">
         <v>128</v>
       </c>
@@ -7732,6 +7791,9 @@
       <c r="A42">
         <v>41</v>
       </c>
+      <c r="C42">
+        <v>14</v>
+      </c>
       <c r="D42" t="s">
         <v>129</v>
       </c>
@@ -7860,7 +7922,9 @@
       <c r="B43" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="3">
+        <v>14</v>
+      </c>
       <c r="D43" s="3" t="s">
         <v>124</v>
       </c>
@@ -11033,6 +11097,400 @@
       <c r="AS65" s="3"/>
       <c r="AT65" s="3" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>231</v>
+      </c>
+      <c r="D66" t="s">
+        <v>136</v>
+      </c>
+      <c r="E66">
+        <v>110</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>99</v>
+      </c>
+      <c r="H66" t="s">
+        <v>104</v>
+      </c>
+      <c r="I66">
+        <v>800</v>
+      </c>
+      <c r="J66">
+        <v>300</v>
+      </c>
+      <c r="K66">
+        <v>100</v>
+      </c>
+      <c r="L66">
+        <v>600</v>
+      </c>
+      <c r="M66">
+        <v>40</v>
+      </c>
+      <c r="N66">
+        <v>1.5</v>
+      </c>
+      <c r="O66">
+        <v>1.8</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>5</v>
+      </c>
+      <c r="S66">
+        <v>0.25</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>1</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <v>0.5</v>
+      </c>
+      <c r="AE66">
+        <v>2.5</v>
+      </c>
+      <c r="AF66">
+        <v>2</v>
+      </c>
+      <c r="AG66">
+        <v>1</v>
+      </c>
+      <c r="AH66">
+        <v>2</v>
+      </c>
+      <c r="AI66">
+        <v>5</v>
+      </c>
+      <c r="AJ66">
+        <v>2</v>
+      </c>
+      <c r="AL66">
+        <v>0.3</v>
+      </c>
+      <c r="AM66">
+        <v>1</v>
+      </c>
+      <c r="AN66">
+        <v>4</v>
+      </c>
+      <c r="AO66">
+        <v>2</v>
+      </c>
+      <c r="AP66">
+        <v>0</v>
+      </c>
+      <c r="AQ66">
+        <v>0</v>
+      </c>
+      <c r="AT66" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>231</v>
+      </c>
+      <c r="D67" t="s">
+        <v>150</v>
+      </c>
+      <c r="E67">
+        <v>34</v>
+      </c>
+      <c r="F67">
+        <v>8</v>
+      </c>
+      <c r="G67" t="s">
+        <v>99</v>
+      </c>
+      <c r="H67" t="s">
+        <v>104</v>
+      </c>
+      <c r="I67">
+        <v>500</v>
+      </c>
+      <c r="J67">
+        <v>300</v>
+      </c>
+      <c r="K67">
+        <v>100</v>
+      </c>
+      <c r="L67">
+        <v>600</v>
+      </c>
+      <c r="M67">
+        <v>40</v>
+      </c>
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="O67">
+        <v>1.5</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>5</v>
+      </c>
+      <c r="S67">
+        <v>0.25</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>1</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>0.8</v>
+      </c>
+      <c r="AE67">
+        <v>2.5</v>
+      </c>
+      <c r="AF67">
+        <v>2</v>
+      </c>
+      <c r="AG67">
+        <v>2</v>
+      </c>
+      <c r="AH67">
+        <v>4</v>
+      </c>
+      <c r="AI67">
+        <v>6</v>
+      </c>
+      <c r="AJ67">
+        <v>2</v>
+      </c>
+      <c r="AL67">
+        <v>0.3</v>
+      </c>
+      <c r="AM67">
+        <v>1</v>
+      </c>
+      <c r="AN67">
+        <v>4</v>
+      </c>
+      <c r="AO67">
+        <v>2</v>
+      </c>
+      <c r="AP67">
+        <v>0</v>
+      </c>
+      <c r="AQ67">
+        <v>0</v>
+      </c>
+      <c r="AT67" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="68" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C68" t="s">
+        <v>231</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E68" s="3">
+        <v>111</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I68" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J68" s="3">
+        <v>300</v>
+      </c>
+      <c r="K68" s="3">
+        <v>200</v>
+      </c>
+      <c r="L68" s="3">
+        <v>600</v>
+      </c>
+      <c r="M68" s="3">
+        <v>120</v>
+      </c>
+      <c r="N68" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O68" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>5</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>1</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="AF68" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG68" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH68" s="3">
+        <v>8</v>
+      </c>
+      <c r="AI68" s="3">
+        <v>12</v>
+      </c>
+      <c r="AJ68" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK68" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL68" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AM68" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN68" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO68" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP68" s="3">
+        <v>20</v>
+      </c>
+      <c r="AQ68" s="3">
+        <v>15</v>
+      </c>
+      <c r="AR68" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS68" s="3"/>
+      <c r="AT68" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4BC40A-954C-4843-B2A4-0A253E30763E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +15,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -97,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -123,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -150,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -203,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -229,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -255,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -281,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -307,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -333,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -359,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -385,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -411,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -437,7 +438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -463,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -489,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -515,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -541,7 +542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -567,7 +568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -593,7 +594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -619,7 +620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -645,7 +646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -671,7 +672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -697,7 +698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -723,7 +724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -749,7 +750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0">
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -775,7 +776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -801,7 +802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -827,7 +828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0">
+    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -853,7 +854,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0">
+    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -879,7 +880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0">
+    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -905,7 +906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0">
+    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
       <text>
         <r>
           <rPr>
@@ -931,7 +932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0">
+    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
       <text>
         <r>
           <rPr>
@@ -957,7 +958,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0" shapeId="0">
+    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
       <text>
         <r>
           <rPr>
@@ -983,7 +984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0">
+    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
       <text>
         <r>
           <rPr>
@@ -1009,7 +1010,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0">
+    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
       <text>
         <r>
           <rPr>
@@ -1035,7 +1036,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0">
+    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
       <text>
         <r>
           <rPr>
@@ -1061,7 +1062,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0">
+    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
       <text>
         <r>
           <rPr>
@@ -1087,7 +1088,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0" shapeId="0">
+    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -1113,7 +1114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0">
+    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
       <text>
         <r>
           <rPr>
@@ -1139,7 +1140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0" shapeId="0">
+    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -2070,8 +2071,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2159,7 +2160,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2234,6 +2235,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2269,6 +2287,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2444,14 +2479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AI23" sqref="AI23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="28.125" customWidth="1"/>
@@ -2489,7 +2524,7 @@
     <col min="46" max="46" width="169.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2629,7 +2664,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:46">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2754,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:46">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2852,10 +2887,10 @@
         <v>2</v>
       </c>
       <c r="AH3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ3">
         <v>2</v>
@@ -2882,7 +2917,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:46">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3010,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:46">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3126,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:46">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3254,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:46">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3382,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:46">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3510,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:46">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3638,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:46">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3766,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:46">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3894,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:46">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4022,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:46">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4150,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:46">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4278,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:46">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4406,7 +4441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:46">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4534,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:46">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4662,7 +4697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:46">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4790,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:46">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4918,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:46">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5046,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:46">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5174,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:46">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5302,7 +5337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:46">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5427,7 +5462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:46">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5525,10 +5560,10 @@
         <v>1</v>
       </c>
       <c r="AH24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ24">
         <v>2</v>
@@ -5555,7 +5590,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:46">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -5689,7 +5724,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:46">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5787,10 +5822,10 @@
         <v>1</v>
       </c>
       <c r="AH26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ26">
         <v>2</v>
@@ -5817,7 +5852,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:46">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5915,10 +5950,10 @@
         <v>2</v>
       </c>
       <c r="AH27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ27">
         <v>2</v>
@@ -5945,7 +5980,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:46">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -6083,7 +6118,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:46">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6181,10 +6216,10 @@
         <v>1</v>
       </c>
       <c r="AH29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ29">
         <v>2</v>
@@ -6211,7 +6246,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:46">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6309,10 +6344,10 @@
         <v>2</v>
       </c>
       <c r="AH30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ30">
         <v>2</v>
@@ -6339,7 +6374,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:46">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -6477,7 +6512,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:46">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6575,10 +6610,10 @@
         <v>1</v>
       </c>
       <c r="AH32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ32">
         <v>2</v>
@@ -6605,7 +6640,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:46">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6703,10 +6738,10 @@
         <v>2</v>
       </c>
       <c r="AH33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI33">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ33">
         <v>2</v>
@@ -6733,7 +6768,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:46">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -6871,7 +6906,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:46">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6969,10 +7004,10 @@
         <v>1</v>
       </c>
       <c r="AH35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI35">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ35">
         <v>2</v>
@@ -6999,7 +7034,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:46">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7097,10 +7132,10 @@
         <v>2</v>
       </c>
       <c r="AH36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ36">
         <v>2</v>
@@ -7127,7 +7162,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:46">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -7265,7 +7300,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:46">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7363,10 +7398,10 @@
         <v>1</v>
       </c>
       <c r="AH38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI38">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ38">
         <v>2</v>
@@ -7393,7 +7428,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:46">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7491,10 +7526,10 @@
         <v>2</v>
       </c>
       <c r="AH39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI39">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ39">
         <v>2</v>
@@ -7521,7 +7556,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:46">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -7659,7 +7694,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:46">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7757,10 +7792,10 @@
         <v>1</v>
       </c>
       <c r="AH41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI41">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ41">
         <v>2</v>
@@ -7787,7 +7822,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:46">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7885,10 +7920,10 @@
         <v>2</v>
       </c>
       <c r="AH42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI42">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ42">
         <v>2</v>
@@ -7915,7 +7950,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:46">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -8053,7 +8088,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:46">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -8185,7 +8220,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:46">
       <c r="A45">
         <v>44</v>
       </c>
@@ -8283,10 +8318,10 @@
         <v>1</v>
       </c>
       <c r="AH45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI45">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ45">
         <v>2</v>
@@ -8313,7 +8348,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:46">
       <c r="A46">
         <v>45</v>
       </c>
@@ -8411,10 +8446,10 @@
         <v>2</v>
       </c>
       <c r="AH46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI46">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ46">
         <v>2</v>
@@ -8441,7 +8476,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:46">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -8581,7 +8616,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:46">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -8721,7 +8756,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:46">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -8861,7 +8896,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:46">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -9001,7 +9036,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:46">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -9141,7 +9176,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:46">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -9281,7 +9316,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:46">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -9421,7 +9456,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:46">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -9561,7 +9596,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:46">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -9701,7 +9736,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:46">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -9841,7 +9876,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:46">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -9981,7 +10016,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:46">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -10121,7 +10156,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:46">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -10261,7 +10296,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:46">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -10401,7 +10436,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:46">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -10541,7 +10576,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:46">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -10681,7 +10716,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:46">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -10821,7 +10856,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:46">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -10961,7 +10996,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:46">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -10987,7 +11022,7 @@
         <v>104</v>
       </c>
       <c r="I65" s="3">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="J65" s="3">
         <v>3000</v>
@@ -11099,7 +11134,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:46">
       <c r="A66">
         <v>65</v>
       </c>
@@ -11197,10 +11232,10 @@
         <v>1</v>
       </c>
       <c r="AH66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI66">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ66">
         <v>2</v>
@@ -11227,7 +11262,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:46">
       <c r="A67">
         <v>66</v>
       </c>
@@ -11325,10 +11360,10 @@
         <v>2</v>
       </c>
       <c r="AH67">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI67">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ67">
         <v>2</v>
@@ -11355,7 +11390,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:46">
       <c r="A68" s="3">
         <v>67</v>
       </c>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4BC40A-954C-4843-B2A4-0A253E30763E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -230,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -256,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -282,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -308,7 +307,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -334,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -360,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -386,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -412,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -438,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -464,7 +463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -516,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -542,7 +541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -568,7 +567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -594,7 +593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -620,7 +619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -646,7 +645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -672,7 +671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="AB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -698,7 +697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="AC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -724,7 +723,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="AD1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -750,7 +749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+    <comment ref="AE1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -776,7 +775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+    <comment ref="AF1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -802,7 +801,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+    <comment ref="AG1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -828,7 +827,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
+    <comment ref="AH1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -854,7 +853,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
+    <comment ref="AI1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -880,7 +879,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
+    <comment ref="AJ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -906,7 +905,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
+    <comment ref="AK1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -932,7 +931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
+    <comment ref="AL1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -958,7 +957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
+    <comment ref="AM1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -984,7 +983,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
+    <comment ref="AN1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1010,7 +1009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
+    <comment ref="AO1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1032,11 +1031,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//掉落的装备是否是公会拍卖行装备 1是 2否</t>
+//掉落的装备是否是拍卖行装备 0否 1是公会拍卖 2是世界拍卖</t>
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
+    <comment ref="AP1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1062,7 +1061,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
+    <comment ref="AQ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1088,7 +1087,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
+    <comment ref="AR1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1114,7 +1113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
+    <comment ref="AS1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1140,7 +1139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
+    <comment ref="AT1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1171,7 +1170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="232">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1720,9 +1719,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IsGuildItemDrop</t>
-  </si>
-  <si>
     <t>GuildPinExp</t>
   </si>
   <si>
@@ -1992,87 +1988,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>77,0.0008;78,0.0008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77,0.0008;78,0.0008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77,0.0012;78,0.0012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;70,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05;54,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05;74,0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,0.25;6,0.25;7,0.25;12,0.12;14,0.12;32,0.15;33,0.15;34,0.15;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,0.25;9,0.25;10,0.25;18,0.22;19,0.22;20,0.22;21,0.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,0.005;19,0.005;27,0.005;28,0.005;29,0.001;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42,0.15;43,0.15;30,0.05;44,0.1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42,0.2;43,0.2;86,0.1;90,0.1;91,0.1;48,0.05;49,0.05;44,0.1;45,0.05;77,0.05;78,0.05;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89,0.1;87,0.1;88,0.1;94,0.1;86,0.18;90,0.18;48,0.15;49,0.15;50,0.15;44,0.2;45,0.15;46,0.05;77,0.05;78,0.05;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss奇兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夺宝奇兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss3a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsAuctionItemDrop</t>
+  </si>
+  <si>
     <t>1,0.015;2,0.015;3,0.015;4,0.012;5,0.015;6,0.015;7,0.015;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77,0.0008;78,0.0008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77,0.0008;78,0.0008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77,0.0012;78,0.0012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77,0.0008;78,0.0008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05;70,0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05;58,0.05;54,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05;58,0.05;74,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,0.25;6,0.25;7,0.25;12,0.12;14,0.12;32,0.15;33,0.15;34,0.15;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,0.25;9,0.25;10,0.25;18,0.22;19,0.22;20,0.22;21,0.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,0.005;19,0.005;27,0.005;28,0.005;29,0.001;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42,0.15;43,0.15;30,0.05;44,0.1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42,0.2;43,0.2;86,0.1;90,0.1;91,0.1;48,0.05;49,0.05;44,0.1;45,0.05;77,0.05;78,0.05;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89,0.1;87,0.1;88,0.1;94,0.1;86,0.18;90,0.18;48,0.15;49,0.15;50,0.15;44,0.2;45,0.15;46,0.05;77,0.05;78,0.05;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss奇兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夺宝奇兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss3a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2160,7 +2155,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2235,23 +2230,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2287,23 +2265,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2479,14 +2440,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI23" sqref="AI23"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AT24" sqref="AT24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="28.125" customWidth="1"/>
@@ -2524,7 +2485,7 @@
     <col min="46" max="46" width="169.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:46" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2532,7 +2493,7 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2646,25 +2607,25 @@
         <v>121</v>
       </c>
       <c r="AO1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="AR1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2780,7 +2741,7 @@
         <v>4</v>
       </c>
       <c r="AO2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP2">
         <v>0</v>
@@ -2789,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2905,7 +2866,7 @@
         <v>4</v>
       </c>
       <c r="AO3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP3">
         <v>0</v>
@@ -2917,7 +2878,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3036,7 +2997,7 @@
         <v>1000</v>
       </c>
       <c r="AO4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -3045,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3152,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP5">
         <v>0</v>
@@ -3161,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3280,7 +3241,7 @@
         <v>1000</v>
       </c>
       <c r="AO6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP6">
         <v>0</v>
@@ -3289,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3408,7 +3369,7 @@
         <v>1000</v>
       </c>
       <c r="AO7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP7">
         <v>0</v>
@@ -3417,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3536,7 +3497,7 @@
         <v>1000</v>
       </c>
       <c r="AO8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP8">
         <v>0</v>
@@ -3545,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3664,7 +3625,7 @@
         <v>1000</v>
       </c>
       <c r="AO9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP9">
         <v>0</v>
@@ -3673,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3792,7 +3753,7 @@
         <v>1000</v>
       </c>
       <c r="AO10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP10">
         <v>0</v>
@@ -3801,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3920,7 +3881,7 @@
         <v>1000</v>
       </c>
       <c r="AO11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP11">
         <v>0</v>
@@ -3929,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4048,7 +4009,7 @@
         <v>1000</v>
       </c>
       <c r="AO12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP12">
         <v>0</v>
@@ -4057,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4176,7 +4137,7 @@
         <v>1000</v>
       </c>
       <c r="AO13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP13">
         <v>0</v>
@@ -4185,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4304,7 +4265,7 @@
         <v>1000</v>
       </c>
       <c r="AO14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP14">
         <v>0</v>
@@ -4313,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4432,7 +4393,7 @@
         <v>1000</v>
       </c>
       <c r="AO15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP15">
         <v>0</v>
@@ -4441,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4560,7 +4521,7 @@
         <v>1000</v>
       </c>
       <c r="AO16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP16">
         <v>0</v>
@@ -4569,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:46">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4688,7 +4649,7 @@
         <v>1000</v>
       </c>
       <c r="AO17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP17">
         <v>0</v>
@@ -4697,7 +4658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:46">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4816,7 +4777,7 @@
         <v>1000</v>
       </c>
       <c r="AO18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP18">
         <v>0</v>
@@ -4825,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:46">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4944,7 +4905,7 @@
         <v>1000</v>
       </c>
       <c r="AO19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP19">
         <v>0</v>
@@ -4953,7 +4914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:46">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5072,7 +5033,7 @@
         <v>1000</v>
       </c>
       <c r="AO20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP20">
         <v>0</v>
@@ -5081,7 +5042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:46">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5200,7 +5161,7 @@
         <v>1000</v>
       </c>
       <c r="AO21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP21">
         <v>0</v>
@@ -5209,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:46">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5328,7 +5289,7 @@
         <v>1000</v>
       </c>
       <c r="AO22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP22">
         <v>0</v>
@@ -5337,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:46">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5453,7 +5414,7 @@
         <v>1000</v>
       </c>
       <c r="AO23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP23">
         <v>0</v>
@@ -5462,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:46">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5578,7 +5539,7 @@
         <v>4</v>
       </c>
       <c r="AO24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP24">
         <v>0</v>
@@ -5587,10 +5548,10 @@
         <v>0</v>
       </c>
       <c r="AT24" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:46">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -5709,8 +5670,8 @@
       <c r="AN25" s="3">
         <v>4</v>
       </c>
-      <c r="AO25" s="3">
-        <v>2</v>
+      <c r="AO25">
+        <v>0</v>
       </c>
       <c r="AP25" s="3">
         <v>2</v>
@@ -5721,10 +5682,10 @@
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
       <c r="AT25" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:46">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5840,7 +5801,7 @@
         <v>4</v>
       </c>
       <c r="AO26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP26">
         <v>0</v>
@@ -5849,10 +5810,10 @@
         <v>0</v>
       </c>
       <c r="AT26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:46">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5968,7 +5929,7 @@
         <v>4</v>
       </c>
       <c r="AO27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP27">
         <v>0</v>
@@ -5977,10 +5938,10 @@
         <v>0</v>
       </c>
       <c r="AT27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:46">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -6101,8 +6062,8 @@
       <c r="AN28" s="3">
         <v>4</v>
       </c>
-      <c r="AO28" s="3">
-        <v>2</v>
+      <c r="AO28">
+        <v>0</v>
       </c>
       <c r="AP28" s="3">
         <v>8</v>
@@ -6111,14 +6072,14 @@
         <v>8</v>
       </c>
       <c r="AR28" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AS28" s="3"/>
       <c r="AT28" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="29" spans="1:46">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6126,7 +6087,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E29">
         <v>110</v>
@@ -6234,7 +6195,7 @@
         <v>4</v>
       </c>
       <c r="AO29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP29">
         <v>0</v>
@@ -6243,10 +6204,10 @@
         <v>0</v>
       </c>
       <c r="AT29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:46">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6254,7 +6215,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E30">
         <v>34</v>
@@ -6362,7 +6323,7 @@
         <v>4</v>
       </c>
       <c r="AO30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP30">
         <v>0</v>
@@ -6371,10 +6332,10 @@
         <v>0</v>
       </c>
       <c r="AT30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:46">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -6495,8 +6456,8 @@
       <c r="AN31" s="3">
         <v>4</v>
       </c>
-      <c r="AO31" s="3">
-        <v>2</v>
+      <c r="AO31">
+        <v>0</v>
       </c>
       <c r="AP31" s="3">
         <v>10</v>
@@ -6505,14 +6466,14 @@
         <v>10</v>
       </c>
       <c r="AR31" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AS31" s="3"/>
       <c r="AT31" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:46">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6628,7 +6589,7 @@
         <v>4</v>
       </c>
       <c r="AO32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP32">
         <v>0</v>
@@ -6637,10 +6598,10 @@
         <v>0</v>
       </c>
       <c r="AT32" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:46">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6648,7 +6609,7 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E33">
         <v>34</v>
@@ -6756,7 +6717,7 @@
         <v>4</v>
       </c>
       <c r="AO33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP33">
         <v>0</v>
@@ -6765,10 +6726,10 @@
         <v>0</v>
       </c>
       <c r="AT33" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:46">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -6878,7 +6839,7 @@
         <v>2</v>
       </c>
       <c r="AK34" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL34" s="3">
         <v>0.3</v>
@@ -6889,8 +6850,8 @@
       <c r="AN34" s="3">
         <v>4</v>
       </c>
-      <c r="AO34" s="3">
-        <v>2</v>
+      <c r="AO34">
+        <v>0</v>
       </c>
       <c r="AP34" s="3">
         <v>20</v>
@@ -6899,14 +6860,14 @@
         <v>15</v>
       </c>
       <c r="AR34" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AS34" s="3"/>
       <c r="AT34" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:46">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7022,7 +6983,7 @@
         <v>4</v>
       </c>
       <c r="AO35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP35">
         <v>0</v>
@@ -7031,10 +6992,10 @@
         <v>0</v>
       </c>
       <c r="AT35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="36" spans="1:46">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7150,7 +7111,7 @@
         <v>4</v>
       </c>
       <c r="AO36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP36">
         <v>0</v>
@@ -7159,10 +7120,10 @@
         <v>0</v>
       </c>
       <c r="AT36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
-    <row r="37" spans="1:46">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -7272,7 +7233,7 @@
         <v>2</v>
       </c>
       <c r="AK37" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL37" s="3">
         <v>0.3</v>
@@ -7283,8 +7244,8 @@
       <c r="AN37" s="3">
         <v>4</v>
       </c>
-      <c r="AO37" s="3">
-        <v>2</v>
+      <c r="AO37">
+        <v>0</v>
       </c>
       <c r="AP37" s="3">
         <v>30</v>
@@ -7293,14 +7254,14 @@
         <v>15</v>
       </c>
       <c r="AR37" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AS37" s="3"/>
       <c r="AT37" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:46">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7308,7 +7269,7 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E38">
         <v>110</v>
@@ -7416,7 +7377,7 @@
         <v>4</v>
       </c>
       <c r="AO38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP38">
         <v>0</v>
@@ -7425,10 +7386,10 @@
         <v>0</v>
       </c>
       <c r="AT38" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="39" spans="1:46">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7544,7 +7505,7 @@
         <v>4</v>
       </c>
       <c r="AO39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP39">
         <v>0</v>
@@ -7553,10 +7514,10 @@
         <v>0</v>
       </c>
       <c r="AT39" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="40" spans="1:46">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -7666,7 +7627,7 @@
         <v>2</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL40" s="3">
         <v>0.3</v>
@@ -7677,8 +7638,8 @@
       <c r="AN40" s="3">
         <v>4</v>
       </c>
-      <c r="AO40" s="3">
-        <v>2</v>
+      <c r="AO40">
+        <v>0</v>
       </c>
       <c r="AP40" s="3">
         <v>40</v>
@@ -7687,14 +7648,14 @@
         <v>20</v>
       </c>
       <c r="AR40" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AS40" s="3"/>
       <c r="AT40" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="41" spans="1:46">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7810,7 +7771,7 @@
         <v>4</v>
       </c>
       <c r="AO41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP41">
         <v>0</v>
@@ -7819,10 +7780,10 @@
         <v>0</v>
       </c>
       <c r="AT41" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:46">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7938,7 +7899,7 @@
         <v>4</v>
       </c>
       <c r="AO42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP42">
         <v>0</v>
@@ -7947,10 +7908,10 @@
         <v>0</v>
       </c>
       <c r="AT42" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
-    <row r="43" spans="1:46">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -8060,7 +8021,7 @@
         <v>2</v>
       </c>
       <c r="AK43" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL43" s="3">
         <v>0.3</v>
@@ -8081,14 +8042,14 @@
         <v>20</v>
       </c>
       <c r="AR43" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AS43" s="3"/>
       <c r="AT43" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:46">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -8206,7 +8167,7 @@
         <v>4</v>
       </c>
       <c r="AO44" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP44" s="3">
         <v>0</v>
@@ -8217,15 +8178,15 @@
       <c r="AR44" s="3"/>
       <c r="AS44" s="3"/>
       <c r="AT44" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:46">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D45" t="s">
         <v>133</v>
@@ -8336,7 +8297,7 @@
         <v>4</v>
       </c>
       <c r="AO45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP45">
         <v>0</v>
@@ -8345,15 +8306,15 @@
         <v>0</v>
       </c>
       <c r="AT45" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
-    <row r="46" spans="1:46">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
         <v>134</v>
@@ -8464,7 +8425,7 @@
         <v>4</v>
       </c>
       <c r="AO46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP46">
         <v>0</v>
@@ -8473,18 +8434,18 @@
         <v>0</v>
       </c>
       <c r="AT46" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="47" spans="1:46">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>124</v>
@@ -8586,7 +8547,7 @@
         <v>2</v>
       </c>
       <c r="AK47" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AL47" s="3">
         <v>0.3</v>
@@ -8607,24 +8568,24 @@
         <v>30</v>
       </c>
       <c r="AR47" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AS47" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AT47" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
-    <row r="48" spans="1:46">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>124</v>
@@ -8726,7 +8687,7 @@
         <v>2</v>
       </c>
       <c r="AK48" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL48" s="3">
         <v>0.3</v>
@@ -8747,24 +8708,24 @@
         <v>30</v>
       </c>
       <c r="AR48" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AS48" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AT48" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="49" spans="1:46">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>124</v>
@@ -8866,7 +8827,7 @@
         <v>2</v>
       </c>
       <c r="AK49" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL49" s="3">
         <v>0.3</v>
@@ -8887,24 +8848,24 @@
         <v>30</v>
       </c>
       <c r="AR49" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AS49" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AT49" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:46">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>124</v>
@@ -9006,7 +8967,7 @@
         <v>2</v>
       </c>
       <c r="AK50" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL50" s="3">
         <v>0.3</v>
@@ -9027,24 +8988,24 @@
         <v>30</v>
       </c>
       <c r="AR50" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AS50" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AT50" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
-    <row r="51" spans="1:46">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>124</v>
@@ -9146,7 +9107,7 @@
         <v>2</v>
       </c>
       <c r="AK51" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL51" s="3">
         <v>0.3</v>
@@ -9167,24 +9128,24 @@
         <v>30</v>
       </c>
       <c r="AR51" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AS51" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AT51" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:46">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>124</v>
@@ -9286,7 +9247,7 @@
         <v>2</v>
       </c>
       <c r="AK52" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL52" s="3">
         <v>0.3</v>
@@ -9307,24 +9268,24 @@
         <v>30</v>
       </c>
       <c r="AR52" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AS52" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AT52" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="53" spans="1:46">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>124</v>
@@ -9426,7 +9387,7 @@
         <v>2</v>
       </c>
       <c r="AK53" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AL53" s="3">
         <v>0.3</v>
@@ -9447,24 +9408,24 @@
         <v>50</v>
       </c>
       <c r="AR53" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AS53" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AT53" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:46">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>124</v>
@@ -9566,7 +9527,7 @@
         <v>2</v>
       </c>
       <c r="AK54" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AL54" s="3">
         <v>0.3</v>
@@ -9587,24 +9548,24 @@
         <v>50</v>
       </c>
       <c r="AR54" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AS54" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AT54" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:46">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>124</v>
@@ -9706,7 +9667,7 @@
         <v>2</v>
       </c>
       <c r="AK55" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AL55" s="3">
         <v>0.3</v>
@@ -9727,24 +9688,24 @@
         <v>50</v>
       </c>
       <c r="AR55" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AS55" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AT55" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="56" spans="1:46">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>124</v>
@@ -9846,7 +9807,7 @@
         <v>2</v>
       </c>
       <c r="AK56" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL56" s="3">
         <v>0.3</v>
@@ -9867,24 +9828,24 @@
         <v>30</v>
       </c>
       <c r="AR56" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AS56" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AT56" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="57" spans="1:46">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>124</v>
@@ -9986,7 +9947,7 @@
         <v>2</v>
       </c>
       <c r="AK57" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL57" s="3">
         <v>0.3</v>
@@ -10007,24 +9968,24 @@
         <v>30</v>
       </c>
       <c r="AR57" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AS57" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AT57" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
-    <row r="58" spans="1:46">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>124</v>
@@ -10036,10 +9997,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="I58" s="3">
         <v>400000</v>
@@ -10126,7 +10087,7 @@
         <v>2</v>
       </c>
       <c r="AK58" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL58" s="3">
         <v>0.3</v>
@@ -10147,24 +10108,24 @@
         <v>30</v>
       </c>
       <c r="AR58" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AS58" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AT58" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:46">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>124</v>
@@ -10176,10 +10137,10 @@
         <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="I59" s="3">
         <v>400000</v>
@@ -10266,7 +10227,7 @@
         <v>2</v>
       </c>
       <c r="AK59" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL59" s="3">
         <v>0.3</v>
@@ -10287,24 +10248,24 @@
         <v>30</v>
       </c>
       <c r="AR59" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AS59" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AT59" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:46">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>124</v>
@@ -10316,10 +10277,10 @@
         <v>0</v>
       </c>
       <c r="G60" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="I60" s="3">
         <v>400000</v>
@@ -10406,7 +10367,7 @@
         <v>2</v>
       </c>
       <c r="AK60" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL60" s="3">
         <v>0.3</v>
@@ -10427,24 +10388,24 @@
         <v>30</v>
       </c>
       <c r="AR60" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AS60" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AT60" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:46">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>124</v>
@@ -10456,10 +10417,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="I61" s="3">
         <v>400000</v>
@@ -10546,7 +10507,7 @@
         <v>2</v>
       </c>
       <c r="AK61" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL61" s="3">
         <v>0.3</v>
@@ -10567,24 +10528,24 @@
         <v>30</v>
       </c>
       <c r="AR61" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AS61" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AT61" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="62" spans="1:46">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>124</v>
@@ -10596,10 +10557,10 @@
         <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="I62" s="3">
         <v>400000</v>
@@ -10686,7 +10647,7 @@
         <v>2</v>
       </c>
       <c r="AK62" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL62" s="3">
         <v>0.3</v>
@@ -10707,24 +10668,24 @@
         <v>50</v>
       </c>
       <c r="AR62" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AS62" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AT62" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
-    <row r="63" spans="1:46">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>124</v>
@@ -10736,10 +10697,10 @@
         <v>0</v>
       </c>
       <c r="G63" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="I63" s="3">
         <v>400000</v>
@@ -10826,7 +10787,7 @@
         <v>2</v>
       </c>
       <c r="AK63" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AL63" s="3">
         <v>0.3</v>
@@ -10847,24 +10808,24 @@
         <v>50</v>
       </c>
       <c r="AR63" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AS63" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AT63" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="64" spans="1:46">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>124</v>
@@ -10876,10 +10837,10 @@
         <v>0</v>
       </c>
       <c r="G64" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="I64" s="3">
         <v>400000</v>
@@ -10966,7 +10927,7 @@
         <v>2</v>
       </c>
       <c r="AK64" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AL64" s="3">
         <v>0.3</v>
@@ -10987,24 +10948,24 @@
         <v>50</v>
       </c>
       <c r="AR64" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AS64" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AT64" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="65" spans="1:46">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>124</v>
@@ -11106,7 +11067,7 @@
         <v>2</v>
       </c>
       <c r="AK65" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL65" s="3">
         <v>0.3</v>
@@ -11118,7 +11079,7 @@
         <v>4</v>
       </c>
       <c r="AO65" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP65" s="3">
         <v>40</v>
@@ -11127,19 +11088,19 @@
         <v>20</v>
       </c>
       <c r="AR65" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AS65" s="3"/>
       <c r="AT65" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="66" spans="1:46">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D66" t="s">
         <v>136</v>
@@ -11250,7 +11211,7 @@
         <v>4</v>
       </c>
       <c r="AO66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP66">
         <v>0</v>
@@ -11259,18 +11220,18 @@
         <v>0</v>
       </c>
       <c r="AT66" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="67" spans="1:46">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E67">
         <v>34</v>
@@ -11378,7 +11339,7 @@
         <v>4</v>
       </c>
       <c r="AO67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP67">
         <v>0</v>
@@ -11387,18 +11348,18 @@
         <v>0</v>
       </c>
       <c r="AT67" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="68" spans="1:46">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C68" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>124</v>
@@ -11500,7 +11461,7 @@
         <v>2</v>
       </c>
       <c r="AK68" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL68" s="3">
         <v>0.3</v>
@@ -11515,17 +11476,17 @@
         <v>2</v>
       </c>
       <c r="AP68" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AQ68" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AR68" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AS68" s="3"/>
       <c r="AT68" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1170,7 +1170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="262">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2028,38 +2028,158 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>boss奇兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夺宝奇兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss3a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsAuctionItemDrop</t>
+  </si>
+  <si>
+    <t>1,0.015;2,0.015;3,0.015;4,0.012;5,0.015;6,0.015;7,0.015;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42,0.15;43,0.15;30,0.05;44,0.1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss4a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>42,0.2;43,0.2;86,0.1;90,0.1;91,0.1;48,0.05;49,0.05;44,0.1;45,0.05;77,0.05;78,0.05;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>boss5a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss6a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>89,0.1;87,0.1;88,0.1;94,0.1;86,0.18;90,0.18;48,0.15;49,0.15;50,0.15;44,0.2;45,0.15;46,0.05;77,0.05;78,0.05;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boss奇兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夺宝奇兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss3a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsAuctionItemDrop</t>
-  </si>
-  <si>
-    <t>1,0.015;2,0.015;3,0.015;4,0.012;5,0.015;6,0.015;7,0.015;</t>
+    <t>89,0.1;87,0.15;88,0.15;94,0.15;94,0.15;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss7a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,0.1;58,0.1;67,0.15;68,0.15;66,0.15;47,0.1;57,0.1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss8a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54,0.05;59,0.05;60,0.05;62,0.05;69,0.05;70,0.05;81,0.05;82,0.05;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss9a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62,0.02;63,0.02;64,0.02;69,0.05;71,0.02;72,0.02;74,0.02;75,0.02;83,0.05;84,0.02;85,0.02;56,0.02;55,0.02;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46,0.15;49,0.15;45,0.15;77,0.15;78,0.15;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86,0.1;90,0.1;91,0.1;77,0.15;78,0.15;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,122,123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,1;122,4;123,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,1;122,4;123,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,1;122,4;123,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,1;122,4;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2441,10 +2561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT68"/>
+  <dimension ref="A1:AT86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AT24" sqref="AT24"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2480,7 +2600,7 @@
     <col min="34" max="34" width="14.75" customWidth="1"/>
     <col min="35" max="35" width="14.375" customWidth="1"/>
     <col min="37" max="37" width="17.5" customWidth="1"/>
-    <col min="44" max="44" width="13" customWidth="1"/>
+    <col min="44" max="44" width="29.875" customWidth="1"/>
     <col min="45" max="45" width="22.125" customWidth="1"/>
     <col min="46" max="46" width="169.875" customWidth="1"/>
   </cols>
@@ -2607,7 +2727,7 @@
         <v>121</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>143</v>
@@ -5548,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="AT24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.15">
@@ -7258,7 +7378,7 @@
       </c>
       <c r="AS37" s="3"/>
       <c r="AT37" s="3" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.15">
@@ -7652,7 +7772,7 @@
       </c>
       <c r="AS40" s="3"/>
       <c r="AT40" s="3" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.15">
@@ -10962,10 +11082,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>124</v>
@@ -11092,7 +11212,7 @@
       </c>
       <c r="AS65" s="3"/>
       <c r="AT65" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:46" x14ac:dyDescent="0.15">
@@ -11100,7 +11220,7 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D66" t="s">
         <v>136</v>
@@ -11218,9 +11338,6 @@
       </c>
       <c r="AQ66">
         <v>0</v>
-      </c>
-      <c r="AT66" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:46" x14ac:dyDescent="0.15">
@@ -11228,7 +11345,7 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D67" t="s">
         <v>149</v>
@@ -11346,9 +11463,6 @@
       </c>
       <c r="AQ67">
         <v>0</v>
-      </c>
-      <c r="AT67" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:46" x14ac:dyDescent="0.15">
@@ -11356,10 +11470,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C68" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>124</v>
@@ -11377,7 +11491,7 @@
         <v>104</v>
       </c>
       <c r="I68" s="3">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J68" s="3">
         <v>300</v>
@@ -11473,7 +11587,7 @@
         <v>4</v>
       </c>
       <c r="AO68" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP68" s="3">
         <v>0</v>
@@ -11486,7 +11600,2335 @@
       </c>
       <c r="AS68" s="3"/>
       <c r="AT68" s="3" t="s">
-        <v>222</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>250</v>
+      </c>
+      <c r="D69" t="s">
+        <v>136</v>
+      </c>
+      <c r="E69">
+        <v>110</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>99</v>
+      </c>
+      <c r="H69" t="s">
+        <v>104</v>
+      </c>
+      <c r="I69">
+        <v>1000</v>
+      </c>
+      <c r="J69">
+        <v>300</v>
+      </c>
+      <c r="K69">
+        <v>100</v>
+      </c>
+      <c r="L69">
+        <v>600</v>
+      </c>
+      <c r="M69">
+        <v>40</v>
+      </c>
+      <c r="N69">
+        <v>1.5</v>
+      </c>
+      <c r="O69">
+        <v>1.8</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>5</v>
+      </c>
+      <c r="S69">
+        <v>0.25</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>1</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>0.5</v>
+      </c>
+      <c r="AE69">
+        <v>2.5</v>
+      </c>
+      <c r="AF69">
+        <v>2</v>
+      </c>
+      <c r="AG69">
+        <v>1</v>
+      </c>
+      <c r="AH69">
+        <v>5</v>
+      </c>
+      <c r="AI69">
+        <v>7</v>
+      </c>
+      <c r="AJ69">
+        <v>2</v>
+      </c>
+      <c r="AL69">
+        <v>0.3</v>
+      </c>
+      <c r="AM69">
+        <v>1</v>
+      </c>
+      <c r="AN69">
+        <v>4</v>
+      </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
+      <c r="AP69">
+        <v>0</v>
+      </c>
+      <c r="AQ69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>251</v>
+      </c>
+      <c r="D70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E70">
+        <v>34</v>
+      </c>
+      <c r="F70">
+        <v>8</v>
+      </c>
+      <c r="G70" t="s">
+        <v>99</v>
+      </c>
+      <c r="H70" t="s">
+        <v>104</v>
+      </c>
+      <c r="I70">
+        <v>600</v>
+      </c>
+      <c r="J70">
+        <v>300</v>
+      </c>
+      <c r="K70">
+        <v>100</v>
+      </c>
+      <c r="L70">
+        <v>600</v>
+      </c>
+      <c r="M70">
+        <v>40</v>
+      </c>
+      <c r="N70">
+        <v>4</v>
+      </c>
+      <c r="O70">
+        <v>1.5</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>5</v>
+      </c>
+      <c r="S70">
+        <v>0.25</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>1</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0.8</v>
+      </c>
+      <c r="AE70">
+        <v>2.5</v>
+      </c>
+      <c r="AF70">
+        <v>2</v>
+      </c>
+      <c r="AG70">
+        <v>2</v>
+      </c>
+      <c r="AH70">
+        <v>6</v>
+      </c>
+      <c r="AI70">
+        <v>8</v>
+      </c>
+      <c r="AJ70">
+        <v>2</v>
+      </c>
+      <c r="AL70">
+        <v>0.3</v>
+      </c>
+      <c r="AM70">
+        <v>1</v>
+      </c>
+      <c r="AN70">
+        <v>4</v>
+      </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
+      <c r="AP70">
+        <v>0</v>
+      </c>
+      <c r="AQ70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C71" t="s">
+        <v>252</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E71" s="3">
+        <v>111</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I71" s="3">
+        <v>40000</v>
+      </c>
+      <c r="J71" s="3">
+        <v>300</v>
+      </c>
+      <c r="K71" s="3">
+        <v>200</v>
+      </c>
+      <c r="L71" s="3">
+        <v>600</v>
+      </c>
+      <c r="M71" s="3">
+        <v>120</v>
+      </c>
+      <c r="N71" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O71" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>5</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>1</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="AF71" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG71" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH71" s="3">
+        <v>8</v>
+      </c>
+      <c r="AI71" s="3">
+        <v>12</v>
+      </c>
+      <c r="AJ71" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK71" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL71" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AM71" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN71" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO71" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR71" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS71" s="3"/>
+      <c r="AT71" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>253</v>
+      </c>
+      <c r="D72" t="s">
+        <v>136</v>
+      </c>
+      <c r="E72">
+        <v>110</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>99</v>
+      </c>
+      <c r="H72" t="s">
+        <v>104</v>
+      </c>
+      <c r="I72">
+        <v>1200</v>
+      </c>
+      <c r="J72">
+        <v>300</v>
+      </c>
+      <c r="K72">
+        <v>100</v>
+      </c>
+      <c r="L72">
+        <v>600</v>
+      </c>
+      <c r="M72">
+        <v>40</v>
+      </c>
+      <c r="N72">
+        <v>1.5</v>
+      </c>
+      <c r="O72">
+        <v>1.8</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>5</v>
+      </c>
+      <c r="S72">
+        <v>0.25</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>1</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>0.5</v>
+      </c>
+      <c r="AE72">
+        <v>2.5</v>
+      </c>
+      <c r="AF72">
+        <v>2</v>
+      </c>
+      <c r="AG72">
+        <v>1</v>
+      </c>
+      <c r="AH72">
+        <v>5</v>
+      </c>
+      <c r="AI72">
+        <v>7</v>
+      </c>
+      <c r="AJ72">
+        <v>2</v>
+      </c>
+      <c r="AL72">
+        <v>0.3</v>
+      </c>
+      <c r="AM72">
+        <v>1</v>
+      </c>
+      <c r="AN72">
+        <v>4</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>0</v>
+      </c>
+      <c r="AQ72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>254</v>
+      </c>
+      <c r="D73" t="s">
+        <v>149</v>
+      </c>
+      <c r="E73">
+        <v>34</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>99</v>
+      </c>
+      <c r="H73" t="s">
+        <v>104</v>
+      </c>
+      <c r="I73">
+        <v>700</v>
+      </c>
+      <c r="J73">
+        <v>300</v>
+      </c>
+      <c r="K73">
+        <v>100</v>
+      </c>
+      <c r="L73">
+        <v>600</v>
+      </c>
+      <c r="M73">
+        <v>40</v>
+      </c>
+      <c r="N73">
+        <v>4</v>
+      </c>
+      <c r="O73">
+        <v>1.5</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>5</v>
+      </c>
+      <c r="S73">
+        <v>0.25</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>1</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0.8</v>
+      </c>
+      <c r="AE73">
+        <v>2.5</v>
+      </c>
+      <c r="AF73">
+        <v>2</v>
+      </c>
+      <c r="AG73">
+        <v>2</v>
+      </c>
+      <c r="AH73">
+        <v>6</v>
+      </c>
+      <c r="AI73">
+        <v>8</v>
+      </c>
+      <c r="AJ73">
+        <v>2</v>
+      </c>
+      <c r="AL73">
+        <v>0.3</v>
+      </c>
+      <c r="AM73">
+        <v>1</v>
+      </c>
+      <c r="AN73">
+        <v>4</v>
+      </c>
+      <c r="AO73">
+        <v>0</v>
+      </c>
+      <c r="AP73">
+        <v>0</v>
+      </c>
+      <c r="AQ73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E74" s="3">
+        <v>111</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I74" s="3">
+        <v>80000</v>
+      </c>
+      <c r="J74" s="3">
+        <v>300</v>
+      </c>
+      <c r="K74" s="3">
+        <v>200</v>
+      </c>
+      <c r="L74" s="3">
+        <v>600</v>
+      </c>
+      <c r="M74" s="3">
+        <v>120</v>
+      </c>
+      <c r="N74" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O74" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>5</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>1</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="AF74" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG74" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH74" s="3">
+        <v>8</v>
+      </c>
+      <c r="AI74" s="3">
+        <v>12</v>
+      </c>
+      <c r="AJ74" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK74" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL74" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AM74" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN74" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO74" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR74" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS74" s="3"/>
+      <c r="AT74" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="75" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>255</v>
+      </c>
+      <c r="D75" t="s">
+        <v>136</v>
+      </c>
+      <c r="E75">
+        <v>110</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>99</v>
+      </c>
+      <c r="H75" t="s">
+        <v>104</v>
+      </c>
+      <c r="I75">
+        <v>1300</v>
+      </c>
+      <c r="J75">
+        <v>300</v>
+      </c>
+      <c r="K75">
+        <v>100</v>
+      </c>
+      <c r="L75">
+        <v>600</v>
+      </c>
+      <c r="M75">
+        <v>40</v>
+      </c>
+      <c r="N75">
+        <v>1.5</v>
+      </c>
+      <c r="O75">
+        <v>1.8</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>5</v>
+      </c>
+      <c r="S75">
+        <v>0.25</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>1</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0.5</v>
+      </c>
+      <c r="AE75">
+        <v>2.5</v>
+      </c>
+      <c r="AF75">
+        <v>2</v>
+      </c>
+      <c r="AG75">
+        <v>1</v>
+      </c>
+      <c r="AH75">
+        <v>5</v>
+      </c>
+      <c r="AI75">
+        <v>7</v>
+      </c>
+      <c r="AJ75">
+        <v>2</v>
+      </c>
+      <c r="AL75">
+        <v>0.3</v>
+      </c>
+      <c r="AM75">
+        <v>1</v>
+      </c>
+      <c r="AN75">
+        <v>4</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+      <c r="AP75">
+        <v>0</v>
+      </c>
+      <c r="AQ75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>256</v>
+      </c>
+      <c r="D76" t="s">
+        <v>149</v>
+      </c>
+      <c r="E76">
+        <v>34</v>
+      </c>
+      <c r="F76">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>99</v>
+      </c>
+      <c r="H76" t="s">
+        <v>104</v>
+      </c>
+      <c r="I76">
+        <v>800</v>
+      </c>
+      <c r="J76">
+        <v>300</v>
+      </c>
+      <c r="K76">
+        <v>100</v>
+      </c>
+      <c r="L76">
+        <v>600</v>
+      </c>
+      <c r="M76">
+        <v>40</v>
+      </c>
+      <c r="N76">
+        <v>4</v>
+      </c>
+      <c r="O76">
+        <v>1.5</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>5</v>
+      </c>
+      <c r="S76">
+        <v>0.25</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>1</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0.8</v>
+      </c>
+      <c r="AE76">
+        <v>2.5</v>
+      </c>
+      <c r="AF76">
+        <v>2</v>
+      </c>
+      <c r="AG76">
+        <v>2</v>
+      </c>
+      <c r="AH76">
+        <v>6</v>
+      </c>
+      <c r="AI76">
+        <v>8</v>
+      </c>
+      <c r="AJ76">
+        <v>2</v>
+      </c>
+      <c r="AL76">
+        <v>0.3</v>
+      </c>
+      <c r="AM76">
+        <v>1</v>
+      </c>
+      <c r="AN76">
+        <v>4</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+      <c r="AP76">
+        <v>0</v>
+      </c>
+      <c r="AQ76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77" t="s">
+        <v>255</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E77" s="3">
+        <v>111</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I77" s="3">
+        <v>120000</v>
+      </c>
+      <c r="J77" s="3">
+        <v>300</v>
+      </c>
+      <c r="K77" s="3">
+        <v>200</v>
+      </c>
+      <c r="L77" s="3">
+        <v>600</v>
+      </c>
+      <c r="M77" s="3">
+        <v>120</v>
+      </c>
+      <c r="N77" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O77" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>5</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>1</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="AF77" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG77" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH77" s="3">
+        <v>8</v>
+      </c>
+      <c r="AI77" s="3">
+        <v>12</v>
+      </c>
+      <c r="AJ77" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK77" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL77" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AM77" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN77" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO77" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR77" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AS77" s="3"/>
+      <c r="AT77" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>257</v>
+      </c>
+      <c r="D78" t="s">
+        <v>136</v>
+      </c>
+      <c r="E78">
+        <v>110</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>99</v>
+      </c>
+      <c r="H78" t="s">
+        <v>104</v>
+      </c>
+      <c r="I78">
+        <v>1400</v>
+      </c>
+      <c r="J78">
+        <v>300</v>
+      </c>
+      <c r="K78">
+        <v>100</v>
+      </c>
+      <c r="L78">
+        <v>600</v>
+      </c>
+      <c r="M78">
+        <v>40</v>
+      </c>
+      <c r="N78">
+        <v>1.5</v>
+      </c>
+      <c r="O78">
+        <v>1.8</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>5</v>
+      </c>
+      <c r="S78">
+        <v>0.25</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>1</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0.5</v>
+      </c>
+      <c r="AE78">
+        <v>2.5</v>
+      </c>
+      <c r="AF78">
+        <v>2</v>
+      </c>
+      <c r="AG78">
+        <v>1</v>
+      </c>
+      <c r="AH78">
+        <v>5</v>
+      </c>
+      <c r="AI78">
+        <v>7</v>
+      </c>
+      <c r="AJ78">
+        <v>2</v>
+      </c>
+      <c r="AL78">
+        <v>0.3</v>
+      </c>
+      <c r="AM78">
+        <v>1</v>
+      </c>
+      <c r="AN78">
+        <v>4</v>
+      </c>
+      <c r="AO78">
+        <v>0</v>
+      </c>
+      <c r="AP78">
+        <v>0</v>
+      </c>
+      <c r="AQ78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>257</v>
+      </c>
+      <c r="D79" t="s">
+        <v>149</v>
+      </c>
+      <c r="E79">
+        <v>34</v>
+      </c>
+      <c r="F79">
+        <v>8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>99</v>
+      </c>
+      <c r="H79" t="s">
+        <v>104</v>
+      </c>
+      <c r="I79">
+        <v>800</v>
+      </c>
+      <c r="J79">
+        <v>300</v>
+      </c>
+      <c r="K79">
+        <v>100</v>
+      </c>
+      <c r="L79">
+        <v>600</v>
+      </c>
+      <c r="M79">
+        <v>40</v>
+      </c>
+      <c r="N79">
+        <v>4</v>
+      </c>
+      <c r="O79">
+        <v>1.5</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>5</v>
+      </c>
+      <c r="S79">
+        <v>0.25</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>1</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <v>0</v>
+      </c>
+      <c r="AD79">
+        <v>0.8</v>
+      </c>
+      <c r="AE79">
+        <v>2.5</v>
+      </c>
+      <c r="AF79">
+        <v>2</v>
+      </c>
+      <c r="AG79">
+        <v>2</v>
+      </c>
+      <c r="AH79">
+        <v>6</v>
+      </c>
+      <c r="AI79">
+        <v>8</v>
+      </c>
+      <c r="AJ79">
+        <v>2</v>
+      </c>
+      <c r="AL79">
+        <v>0.3</v>
+      </c>
+      <c r="AM79">
+        <v>1</v>
+      </c>
+      <c r="AN79">
+        <v>4</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79">
+        <v>0</v>
+      </c>
+      <c r="AQ79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C80" t="s">
+        <v>257</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E80" s="3">
+        <v>111</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I80" s="3">
+        <v>140000</v>
+      </c>
+      <c r="J80" s="3">
+        <v>300</v>
+      </c>
+      <c r="K80" s="3">
+        <v>200</v>
+      </c>
+      <c r="L80" s="3">
+        <v>600</v>
+      </c>
+      <c r="M80" s="3">
+        <v>120</v>
+      </c>
+      <c r="N80" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O80" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="P80" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>0</v>
+      </c>
+      <c r="R80" s="3">
+        <v>5</v>
+      </c>
+      <c r="S80" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="T80" s="3">
+        <v>0</v>
+      </c>
+      <c r="U80" s="3">
+        <v>0</v>
+      </c>
+      <c r="V80" s="3">
+        <v>0</v>
+      </c>
+      <c r="W80" s="3">
+        <v>1</v>
+      </c>
+      <c r="X80" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AE80" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="AF80" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG80" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH80" s="3">
+        <v>8</v>
+      </c>
+      <c r="AI80" s="3">
+        <v>12</v>
+      </c>
+      <c r="AJ80" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK80" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL80" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AM80" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN80" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO80" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP80" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ80" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR80" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS80" s="3"/>
+      <c r="AT80" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="81" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>258</v>
+      </c>
+      <c r="D81" t="s">
+        <v>136</v>
+      </c>
+      <c r="E81">
+        <v>110</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>99</v>
+      </c>
+      <c r="H81" t="s">
+        <v>104</v>
+      </c>
+      <c r="I81">
+        <v>1600</v>
+      </c>
+      <c r="J81">
+        <v>300</v>
+      </c>
+      <c r="K81">
+        <v>100</v>
+      </c>
+      <c r="L81">
+        <v>600</v>
+      </c>
+      <c r="M81">
+        <v>60</v>
+      </c>
+      <c r="N81">
+        <v>1.5</v>
+      </c>
+      <c r="O81">
+        <v>1.8</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>5</v>
+      </c>
+      <c r="S81">
+        <v>0.25</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>1</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>0.5</v>
+      </c>
+      <c r="AE81">
+        <v>2.5</v>
+      </c>
+      <c r="AF81">
+        <v>2</v>
+      </c>
+      <c r="AG81">
+        <v>1</v>
+      </c>
+      <c r="AH81">
+        <v>5</v>
+      </c>
+      <c r="AI81">
+        <v>7</v>
+      </c>
+      <c r="AJ81">
+        <v>2</v>
+      </c>
+      <c r="AL81">
+        <v>0.3</v>
+      </c>
+      <c r="AM81">
+        <v>1</v>
+      </c>
+      <c r="AN81">
+        <v>4</v>
+      </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
+      <c r="AP81">
+        <v>0</v>
+      </c>
+      <c r="AQ81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>259</v>
+      </c>
+      <c r="D82" t="s">
+        <v>149</v>
+      </c>
+      <c r="E82">
+        <v>34</v>
+      </c>
+      <c r="F82">
+        <v>8</v>
+      </c>
+      <c r="G82" t="s">
+        <v>99</v>
+      </c>
+      <c r="H82" t="s">
+        <v>104</v>
+      </c>
+      <c r="I82">
+        <v>1000</v>
+      </c>
+      <c r="J82">
+        <v>300</v>
+      </c>
+      <c r="K82">
+        <v>100</v>
+      </c>
+      <c r="L82">
+        <v>600</v>
+      </c>
+      <c r="M82">
+        <v>60</v>
+      </c>
+      <c r="N82">
+        <v>4</v>
+      </c>
+      <c r="O82">
+        <v>1.5</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>5</v>
+      </c>
+      <c r="S82">
+        <v>0.25</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>1</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82">
+        <v>0.8</v>
+      </c>
+      <c r="AE82">
+        <v>2.5</v>
+      </c>
+      <c r="AF82">
+        <v>2</v>
+      </c>
+      <c r="AG82">
+        <v>2</v>
+      </c>
+      <c r="AH82">
+        <v>6</v>
+      </c>
+      <c r="AI82">
+        <v>8</v>
+      </c>
+      <c r="AJ82">
+        <v>2</v>
+      </c>
+      <c r="AL82">
+        <v>0.3</v>
+      </c>
+      <c r="AM82">
+        <v>1</v>
+      </c>
+      <c r="AN82">
+        <v>4</v>
+      </c>
+      <c r="AO82">
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <v>0</v>
+      </c>
+      <c r="AQ82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C83" t="s">
+        <v>258</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E83" s="3">
+        <v>111</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I83" s="3">
+        <v>300000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>300</v>
+      </c>
+      <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
+        <v>600</v>
+      </c>
+      <c r="M83" s="3">
+        <v>140</v>
+      </c>
+      <c r="N83" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O83" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>1</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="AF83" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG83" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH83" s="3">
+        <v>8</v>
+      </c>
+      <c r="AI83" s="3">
+        <v>12</v>
+      </c>
+      <c r="AJ83" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK83" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL83" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AM83" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN83" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO83" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR83" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AS83" s="3"/>
+      <c r="AT83" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="84" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>260</v>
+      </c>
+      <c r="D84" t="s">
+        <v>136</v>
+      </c>
+      <c r="E84">
+        <v>110</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>99</v>
+      </c>
+      <c r="H84" t="s">
+        <v>104</v>
+      </c>
+      <c r="I84">
+        <v>1600</v>
+      </c>
+      <c r="J84">
+        <v>300</v>
+      </c>
+      <c r="K84">
+        <v>100</v>
+      </c>
+      <c r="L84">
+        <v>600</v>
+      </c>
+      <c r="M84">
+        <v>60</v>
+      </c>
+      <c r="N84">
+        <v>1.5</v>
+      </c>
+      <c r="O84">
+        <v>1.8</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>5</v>
+      </c>
+      <c r="S84">
+        <v>0.25</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>1</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>0.5</v>
+      </c>
+      <c r="AE84">
+        <v>2.5</v>
+      </c>
+      <c r="AF84">
+        <v>2</v>
+      </c>
+      <c r="AG84">
+        <v>1</v>
+      </c>
+      <c r="AH84">
+        <v>5</v>
+      </c>
+      <c r="AI84">
+        <v>7</v>
+      </c>
+      <c r="AJ84">
+        <v>2</v>
+      </c>
+      <c r="AL84">
+        <v>0.3</v>
+      </c>
+      <c r="AM84">
+        <v>1</v>
+      </c>
+      <c r="AN84">
+        <v>4</v>
+      </c>
+      <c r="AO84">
+        <v>0</v>
+      </c>
+      <c r="AP84">
+        <v>0</v>
+      </c>
+      <c r="AQ84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>261</v>
+      </c>
+      <c r="D85" t="s">
+        <v>149</v>
+      </c>
+      <c r="E85">
+        <v>34</v>
+      </c>
+      <c r="F85">
+        <v>8</v>
+      </c>
+      <c r="G85" t="s">
+        <v>99</v>
+      </c>
+      <c r="H85" t="s">
+        <v>104</v>
+      </c>
+      <c r="I85">
+        <v>1000</v>
+      </c>
+      <c r="J85">
+        <v>300</v>
+      </c>
+      <c r="K85">
+        <v>100</v>
+      </c>
+      <c r="L85">
+        <v>600</v>
+      </c>
+      <c r="M85">
+        <v>60</v>
+      </c>
+      <c r="N85">
+        <v>4</v>
+      </c>
+      <c r="O85">
+        <v>1.5</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>5</v>
+      </c>
+      <c r="S85">
+        <v>0.25</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>1</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
+        <v>0.8</v>
+      </c>
+      <c r="AE85">
+        <v>2.5</v>
+      </c>
+      <c r="AF85">
+        <v>2</v>
+      </c>
+      <c r="AG85">
+        <v>2</v>
+      </c>
+      <c r="AH85">
+        <v>6</v>
+      </c>
+      <c r="AI85">
+        <v>8</v>
+      </c>
+      <c r="AJ85">
+        <v>2</v>
+      </c>
+      <c r="AL85">
+        <v>0.3</v>
+      </c>
+      <c r="AM85">
+        <v>1</v>
+      </c>
+      <c r="AN85">
+        <v>4</v>
+      </c>
+      <c r="AO85">
+        <v>0</v>
+      </c>
+      <c r="AP85">
+        <v>0</v>
+      </c>
+      <c r="AQ85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C86" t="s">
+        <v>261</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E86" s="3">
+        <v>111</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I86" s="3">
+        <v>400000</v>
+      </c>
+      <c r="J86" s="3">
+        <v>300</v>
+      </c>
+      <c r="K86" s="3">
+        <v>200</v>
+      </c>
+      <c r="L86" s="3">
+        <v>600</v>
+      </c>
+      <c r="M86" s="3">
+        <v>140</v>
+      </c>
+      <c r="N86" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O86" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>5</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>1</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="AF86" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG86" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH86" s="3">
+        <v>8</v>
+      </c>
+      <c r="AI86" s="3">
+        <v>12</v>
+      </c>
+      <c r="AJ86" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK86" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL86" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AM86" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN86" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO86" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR86" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS86" s="3"/>
+      <c r="AT86" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/units.xlsx
+++ b/bin/conf/units.xlsx
@@ -1761,26 +1761,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>47,0.05;57,0.05;58,0.05;59,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05;58,0.05;61,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boss12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>47,0.05;57,0.05;58,0.05;60,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05;58,0.05;62,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boss11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1801,14 +1785,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>47,0.05;57,0.05;58,0.05;63,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05;58,0.05;64,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>des</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1908,34 +1884,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>51,0.05;52,0.05;69,0.02;71,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51,0.05;52,0.05;69,0.02;72,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51,0.05;52,0.05;69,0.02;80,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51,0.05;52,0.05;69,0.02;79,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51,0.05;52,0.05;69,0.02;82,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51,0.05;52,0.05;69,0.02;85,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51,0.05;52,0.05;69,0.02;84,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5,0.015;6,0.015;7,0.015;8,0.01;9,0.01;10,0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2004,14 +1952,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>47,0.05;57,0.05;58,0.05;54,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,0.05;57,0.05;58,0.05;74,0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5,0.25;6,0.25;7,0.25;12,0.12;14,0.12;32,0.15;33,0.15;34,0.15;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2180,6 +2120,66 @@
   </si>
   <si>
     <t>副本7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05;54,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05;59,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05;61,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05;60,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05;62,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05;63,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05;64,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,0.05;57,0.05;58,0.05;74,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;71,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;80,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;72,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;79,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;82,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;85,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,0.05;52,0.05;69,0.02;84,0.05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2563,8 +2563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="AQ40" workbookViewId="0">
+      <selection activeCell="AT60" sqref="AT60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2613,7 +2613,7 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2727,7 +2727,7 @@
         <v>121</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>143</v>
@@ -2736,10 +2736,10 @@
         <v>144</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>125</v>
@@ -5668,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="AT24" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.15">
@@ -5802,7 +5802,7 @@
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
       <c r="AT25" s="3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.15">
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AT26" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.15">
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="AT27" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.15">
@@ -6192,11 +6192,11 @@
         <v>8</v>
       </c>
       <c r="AR28" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AS28" s="3"/>
       <c r="AT28" s="3" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.15">
@@ -6324,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="AT29" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.15">
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="AT30" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.15">
@@ -6586,11 +6586,11 @@
         <v>10</v>
       </c>
       <c r="AR31" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AS31" s="3"/>
       <c r="AT31" s="3" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.15">
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="AT32" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.15">
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="AT33" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.15">
@@ -6959,7 +6959,7 @@
         <v>2</v>
       </c>
       <c r="AK34" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AL34" s="3">
         <v>0.3</v>
@@ -6980,11 +6980,11 @@
         <v>15</v>
       </c>
       <c r="AR34" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AS34" s="3"/>
       <c r="AT34" s="3" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.15">
@@ -7112,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="AT35" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.15">
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AT36" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.15">
@@ -7353,7 +7353,7 @@
         <v>2</v>
       </c>
       <c r="AK37" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AL37" s="3">
         <v>0.3</v>
@@ -7374,11 +7374,11 @@
         <v>15</v>
       </c>
       <c r="AR37" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AS37" s="3"/>
       <c r="AT37" s="3" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.15">
@@ -7506,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="AT38" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.15">
@@ -7634,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="AT39" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.15">
@@ -7747,7 +7747,7 @@
         <v>2</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AL40" s="3">
         <v>0.3</v>
@@ -7768,11 +7768,11 @@
         <v>20</v>
       </c>
       <c r="AR40" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AS40" s="3"/>
       <c r="AT40" s="3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.15">
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="AT41" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.15">
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="AT42" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.15">
@@ -8141,7 +8141,7 @@
         <v>2</v>
       </c>
       <c r="AK43" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AL43" s="3">
         <v>0.3</v>
@@ -8162,7 +8162,7 @@
         <v>20</v>
       </c>
       <c r="AR43" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AS43" s="3"/>
       <c r="AT43" s="3" t="s">
@@ -8298,7 +8298,7 @@
       <c r="AR44" s="3"/>
       <c r="AS44" s="3"/>
       <c r="AT44" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.15">
@@ -8306,7 +8306,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D45" t="s">
         <v>133</v>
@@ -8426,7 +8426,7 @@
         <v>0</v>
       </c>
       <c r="AT45" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.15">
@@ -8434,7 +8434,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D46" t="s">
         <v>134</v>
@@ -8554,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="AT46" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.15">
@@ -8565,7 +8565,7 @@
         <v>146</v>
       </c>
       <c r="C47" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>124</v>
@@ -8667,7 +8667,7 @@
         <v>2</v>
       </c>
       <c r="AK47" s="4" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="AL47" s="3">
         <v>0.3</v>
@@ -8688,13 +8688,13 @@
         <v>30</v>
       </c>
       <c r="AR47" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AS47" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AT47" s="3" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.15">
@@ -8705,7 +8705,7 @@
         <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>124</v>
@@ -8807,7 +8807,7 @@
         <v>2</v>
       </c>
       <c r="AK48" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AL48" s="3">
         <v>0.3</v>
@@ -8828,13 +8828,13 @@
         <v>30</v>
       </c>
       <c r="AR48" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AS48" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AT48" s="3" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:46" x14ac:dyDescent="0.15">
@@ -8845,7 +8845,7 @@
         <v>151</v>
       </c>
       <c r="C49" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>124</v>
@@ -8947,7 +8947,7 @@
         <v>2</v>
       </c>
       <c r="AK49" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AL49" s="3">
         <v>0.3</v>
@@ -8968,13 +8968,13 @@
         <v>30</v>
       </c>
       <c r="AR49" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AS49" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AT49" s="3" t="s">
-        <v>154</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.15">
@@ -8985,7 +8985,7 @@
         <v>152</v>
       </c>
       <c r="C50" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>124</v>
@@ -9087,7 +9087,7 @@
         <v>2</v>
       </c>
       <c r="AK50" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AL50" s="3">
         <v>0.3</v>
@@ -9108,13 +9108,13 @@
         <v>30</v>
       </c>
       <c r="AR50" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AS50" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AT50" s="3" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.15">
@@ -9122,10 +9122,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C51" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>124</v>
@@ -9227,7 +9227,7 @@
         <v>2</v>
       </c>
       <c r="AK51" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AL51" s="3">
         <v>0.3</v>
@@ -9248,13 +9248,13 @@
         <v>30</v>
       </c>
       <c r="AR51" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AS51" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AT51" s="3" t="s">
-        <v>157</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:46" x14ac:dyDescent="0.15">
@@ -9262,10 +9262,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>124</v>
@@ -9367,7 +9367,7 @@
         <v>2</v>
       </c>
       <c r="AK52" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AL52" s="3">
         <v>0.3</v>
@@ -9388,13 +9388,13 @@
         <v>30</v>
       </c>
       <c r="AR52" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AS52" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AT52" s="3" t="s">
-        <v>158</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:46" x14ac:dyDescent="0.15">
@@ -9402,10 +9402,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C53" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>124</v>
@@ -9507,7 +9507,7 @@
         <v>2</v>
       </c>
       <c r="AK53" s="4" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="AL53" s="3">
         <v>0.3</v>
@@ -9528,13 +9528,13 @@
         <v>50</v>
       </c>
       <c r="AR53" s="3" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="AS53" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AT53" s="3" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:46" x14ac:dyDescent="0.15">
@@ -9542,10 +9542,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" t="s">
         <v>161</v>
-      </c>
-      <c r="C54" t="s">
-        <v>167</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>124</v>
@@ -9647,7 +9647,7 @@
         <v>2</v>
       </c>
       <c r="AK54" s="4" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="AL54" s="3">
         <v>0.3</v>
@@ -9668,13 +9668,13 @@
         <v>50</v>
       </c>
       <c r="AR54" s="3" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="AS54" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AT54" s="3" t="s">
-        <v>165</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.15">
@@ -9682,10 +9682,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" t="s">
         <v>162</v>
-      </c>
-      <c r="C55" t="s">
-        <v>168</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>124</v>
@@ -9787,7 +9787,7 @@
         <v>2</v>
       </c>
       <c r="AK55" s="4" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="AL55" s="3">
         <v>0.3</v>
@@ -9808,13 +9808,13 @@
         <v>50</v>
       </c>
       <c r="AR55" s="3" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="AS55" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AT55" s="3" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.15">
@@ -9822,10 +9822,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C56" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>124</v>
@@ -9927,7 +9927,7 @@
         <v>2</v>
       </c>
       <c r="AK56" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AL56" s="3">
         <v>0.3</v>
@@ -9948,13 +9948,13 @@
         <v>30</v>
       </c>
       <c r="AR56" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AS56" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AT56" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.15">
@@ -9962,10 +9962,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C57" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>124</v>
@@ -10067,7 +10067,7 @@
         <v>2</v>
       </c>
       <c r="AK57" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AL57" s="3">
         <v>0.3</v>
@@ -10088,13 +10088,13 @@
         <v>30</v>
       </c>
       <c r="AR57" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AS57" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AT57" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.15">
@@ -10102,10 +10102,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C58" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>124</v>
@@ -10117,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I58" s="3">
         <v>400000</v>
@@ -10207,7 +10207,7 @@
         <v>2</v>
       </c>
       <c r="AK58" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AL58" s="3">
         <v>0.3</v>
@@ -10228,13 +10228,13 @@
         <v>30</v>
       </c>
       <c r="AR58" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AS58" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AT58" s="3" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.15">
@@ -10242,10 +10242,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C59" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>124</v>
@@ -10257,10 +10257,10 @@
         <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I59" s="3">
         <v>400000</v>
@@ -10347,7 +10347,7 @@
         <v>2</v>
       </c>
       <c r="AK59" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AL59" s="3">
         <v>0.3</v>
@@ -10368,13 +10368,13 @@
         <v>30</v>
       </c>
       <c r="AR59" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AS59" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AT59" s="3" t="s">
-        <v>195</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.15">
@@ -10382,10 +10382,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C60" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>124</v>
@@ -10397,10 +10397,10 @@
         <v>0</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I60" s="3">
         <v>400000</v>
@@ -10487,7 +10487,7 @@
         <v>2</v>
       </c>
       <c r="AK60" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AL60" s="3">
         <v>0.3</v>
@@ -10508,13 +10508,13 @@
         <v>30</v>
       </c>
       <c r="AR60" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AS60" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AT60" s="3" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.15">
@@ -10522,10 +10522,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C61" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>124</v>
@@ -10537,10 +10537,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I61" s="3">
         <v>400000</v>
@@ -10627,7 +10627,7 @@
         <v>2</v>
       </c>
       <c r="AK61" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AL61" s="3">
         <v>0.3</v>
@@ -10648,13 +10648,13 @@
         <v>30</v>
       </c>
       <c r="AR61" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AS61" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AT61" s="3" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.15">
@@ -10662,10 +10662,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C62" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>124</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I62" s="3">
         <v>400000</v>
@@ -10767,7 +10767,7 @@
         <v>2</v>
       </c>
       <c r="AK62" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AL62" s="3">
         <v>0.3</v>
@@ -10788,13 +10788,13 @@
         <v>50</v>
       </c>
       <c r="AR62" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AS62" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AT62" s="3" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="1:46" x14ac:dyDescent="0.15">
@@ -10802,10 +10802,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>124</v>
@@ -10817,10 +10817,10 @@
         <v>0</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I63" s="3">
         <v>400000</v>
@@ -10907,7 +10907,7 @@
         <v>2</v>
       </c>
       <c r="AK63" s="4" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="AL63" s="3">
         <v>0.3</v>
@@ -10928,13 +10928,13 @@
         <v>50</v>
       </c>
       <c r="AR63" s="3" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AS63" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AT63" s="3" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.15">
@@ -10942,10 +10942,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C64" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>124</v>
@@ -10957,10 +10957,10 @@
         <v>0</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I64" s="3">
         <v>400000</v>
@@ -11047,7 +11047,7 @@
         <v>2</v>
       </c>
       <c r="AK64" s="4" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="AL64" s="3">
         <v>0.3</v>
@@ -11068,13 +11068,13 @@
         <v>50</v>
       </c>
       <c r="AR64" s="3" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AS64" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AT64" s="3" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:46" x14ac:dyDescent="0.15">
@@ -11082,10 +11082,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>124</v>
@@ -11187,7 +11187,7 @@
         <v>2</v>
       </c>
       <c r="AK65" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AL65" s="3">
         <v>0.3</v>
@@ -11208,11 +11208,11 @@
         <v>20</v>
       </c>
       <c r="AR65" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AS65" s="3"/>
       <c r="AT65" s="3" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:46" x14ac:dyDescent="0.15">
@@ -11220,7 +11220,7 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D66" t="s">
         <v>136</v>
@@ -11345,7 +11345,7 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D67" t="s">
         <v>149</v>
@@ -11470,10 +11470,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C68" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>124</v>
@@ -11575,7 +11575,7 @@
         <v>2</v>
       </c>
       <c r="AK68" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AL68" s="3">
         <v>0.3</v>
@@ -11596,11 +11596,11 @@
         <v>0</v>
       </c>
       <c r="AR68" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AS68" s="3"/>
       <c r="AT68" s="3" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:46" x14ac:dyDescent="0.15">
@@ -11608,7 +11608,7 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D69" t="s">
         <v>136</v>
@@ -11733,7 +11733,7 @@
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D70" t="s">
         <v>149</v>
@@ -11858,10 +11858,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C71" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>124</v>
@@ -11963,7 +11963,7 @@
         <v>2</v>
       </c>
       <c r="AK71" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AL71" s="3">
         <v>0.3</v>
@@ -11984,11 +11984,11 @@
         <v>0</v>
       </c>
       <c r="AR71" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AS71" s="3"/>
       <c r="AT71" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:46" x14ac:dyDescent="0.15">
@@ -11996,7 +11996,7 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D72" t="s">
         <v>136</v>
@@ -12121,7 +12121,7 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D73" t="s">
         <v>149</v>
@@ -12246,10 +12246,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C74" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>124</v>
@@ -12351,7 +12351,7 @@
         <v>2</v>
       </c>
       <c r="AK74" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AL74" s="3">
         <v>0.3</v>
@@ -12372,11 +12372,11 @@
         <v>0</v>
       </c>
       <c r="AR74" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AS74" s="3"/>
       <c r="AT74" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:46" x14ac:dyDescent="0.15">
@@ -12384,7 +12384,7 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="D75" t="s">
         <v>136</v>
@@ -12509,7 +12509,7 @@
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D76" t="s">
         <v>149</v>
@@ -12634,10 +12634,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C77" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>124</v>
@@ -12739,7 +12739,7 @@
         <v>2</v>
       </c>
       <c r="AK77" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AL77" s="3">
         <v>0.3</v>
@@ -12760,11 +12760,11 @@
         <v>0</v>
       </c>
       <c r="AR77" s="3" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="AS77" s="3"/>
       <c r="AT77" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:46" x14ac:dyDescent="0.15">
@@ -12772,7 +12772,7 @@
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D78" t="s">
         <v>136</v>
@@ -12897,7 +12897,7 @@
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D79" t="s">
         <v>149</v>
@@ -13022,10 +13022,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C80" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>124</v>
@@ -13127,7 +13127,7 @@
         <v>2</v>
       </c>
       <c r="AK80" s="4" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="AL80" s="3">
         <v>0.3</v>
@@ -13148,11 +13148,11 @@
         <v>0</v>
       </c>
       <c r="AR80" s="3" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="AS80" s="3"/>
       <c r="AT80" s="3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:46" x14ac:dyDescent="0.15">
@@ -13160,7 +13160,7 @@
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D81" t="s">
         <v>136</v>
@@ -13285,7 +13285,7 @@
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D82" t="s">
         <v>149</v>
@@ -13410,10 +13410,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C83" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>124</v>
@@ -13515,7 +13515,7 @@
         <v>2</v>
       </c>
       <c r="AK83" s="4" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="AL83" s="3">
         <v>0.3</v>
@@ -13536,11 +13536,11 @@
         <v>0</v>
       </c>
       <c r="AR83" s="3" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="AS83" s="3"/>
       <c r="AT83" s="3" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:46" x14ac:dyDescent="0.15">
@@ -13548,7 +13548,7 @@
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D84" t="s">
         <v>136</v>
@@ -13673,7 +13673,7 @@
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D85" t="s">
         <v>149</v>
@@ -13798,10 +13798,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C86" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>124</v>
@@ -13903,7 +13903,7 @@
         <v>2</v>
       </c>
       <c r="AK86" s="4" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="AL86" s="3">
         <v>0.3</v>
@@ -13924,11 +13924,11 @@
         <v>0</v>
       </c>
       <c r="AR86" s="3" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="AS86" s="3"/>
       <c r="AT86" s="3" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
